--- a/Milestone 3 - Construction/Tratamento de Respostas QUIZ - João Vieira/Cura_Tratamento_Respostas_Quiz.xlsx
+++ b/Milestone 3 - Construction/Tratamento de Respostas QUIZ - João Vieira/Cura_Tratamento_Respostas_Quiz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPNV\Desktop\PECI\Tratamento de Respostas QUIZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPNV\Desktop\PECI\SplashDocumentation\Milestone 3 - Construction\Tratamento de Respostas QUIZ - João Vieira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86BB084-0573-4595-8307-E2864654A94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27AA1AC-B801-4297-8D4E-D420F3274131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CABAC038-7DB2-4D5D-AA92-30558BB8BEB0}"/>
   </bookViews>
@@ -1616,16 +1616,106 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1637,100 +1727,10 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -11225,8 +11225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C81FB5-4AA6-4066-A247-64373E5EC0A2}">
   <dimension ref="A1:U336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T233" sqref="T233"/>
+    <sheetView tabSelected="1" topLeftCell="B210" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DP49" sqref="DP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11249,36 +11249,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -11291,12 +11291,12 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="15"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -11330,7 +11330,7 @@
       <c r="E5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
@@ -11338,10 +11338,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="8" t="s">
         <v>9</v>
       </c>
@@ -11360,7 +11360,7 @@
       <c r="E6" s="18">
         <v>37</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
@@ -11386,7 +11386,7 @@
       <c r="E7" s="18">
         <v>14</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="21" t="s">
         <v>15</v>
       </c>
@@ -11412,7 +11412,7 @@
       <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="21" t="s">
         <v>18</v>
       </c>
@@ -11434,7 +11434,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="22"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="71"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="21" t="s">
         <v>21</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="22"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="71"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="21" t="s">
         <v>23</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="22"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="71"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="21" t="s">
         <v>25</v>
       </c>
@@ -11500,7 +11500,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="22"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="71"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="21" t="s">
         <v>27</v>
       </c>
@@ -11522,7 +11522,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="22"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="71"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="21" t="s">
         <v>29</v>
       </c>
@@ -11550,7 +11550,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="22"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="71"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="21" t="s">
         <v>33</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="22"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="71"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="21" t="s">
         <v>36</v>
       </c>
@@ -11598,7 +11598,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="22"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="71"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="21" t="s">
         <v>38</v>
       </c>
@@ -11616,7 +11616,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="22"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="21" t="s">
         <v>39</v>
       </c>
@@ -11634,7 +11634,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="22"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="21" t="s">
         <v>40</v>
       </c>
@@ -11652,7 +11652,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="22"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="21" t="s">
         <v>41</v>
       </c>
@@ -11670,7 +11670,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="22"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="21" t="s">
         <v>42</v>
       </c>
@@ -11688,7 +11688,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="22"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="71"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="21" t="s">
         <v>43</v>
       </c>
@@ -11706,7 +11706,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="22"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="71"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="21" t="s">
         <v>44</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="22"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="71"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="21" t="s">
         <v>45</v>
       </c>
@@ -11742,7 +11742,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="22"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="21" t="s">
         <v>46</v>
       </c>
@@ -11760,7 +11760,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="22"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
@@ -11769,54 +11769,54 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="39" x14ac:dyDescent="0.6">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="53" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
@@ -11826,17 +11826,17 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -11848,7 +11848,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="63"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="19" t="s">
         <v>2</v>
       </c>
@@ -11860,9 +11860,9 @@
       <c r="K30" s="4">
         <v>11</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
@@ -11874,15 +11874,15 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
@@ -11893,28 +11893,28 @@
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="63"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="67" t="s">
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -11925,24 +11925,24 @@
       </c>
       <c r="C33" s="3"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="63"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="21" t="s">
         <v>55</v>
       </c>
       <c r="H33" s="4">
         <v>54</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
     </row>
     <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -11953,7 +11953,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="63"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="21" t="s">
         <v>57</v>
       </c>
@@ -11972,15 +11972,15 @@
       <c r="M34" s="25">
         <v>6</v>
       </c>
-      <c r="N34" s="74" t="s">
+      <c r="N34" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="76"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="29"/>
     </row>
     <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -11992,7 +11992,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="63"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="21" t="s">
         <v>62</v>
       </c>
@@ -12003,13 +12003,13 @@
       <c r="K35" s="17"/>
       <c r="L35" s="22"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
       <c r="U35" s="29"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="63"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="21" t="s">
         <v>64</v>
       </c>
@@ -12032,13 +12032,13 @@
       <c r="K36" s="17"/>
       <c r="L36" s="22"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
       <c r="U36" s="29"/>
     </row>
     <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12050,7 +12050,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="63"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="21" t="s">
         <v>65</v>
       </c>
@@ -12061,13 +12061,13 @@
       <c r="K37" s="17"/>
       <c r="L37" s="22"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
       <c r="U37" s="29"/>
     </row>
     <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12079,7 +12079,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="63"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="21" t="s">
         <v>66</v>
       </c>
@@ -12094,13 +12094,13 @@
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
       <c r="U38" s="29"/>
     </row>
     <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12112,7 +12112,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="63"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
@@ -12127,13 +12127,13 @@
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
       <c r="U39" s="29"/>
     </row>
     <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="63"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="21" t="s">
         <v>72</v>
       </c>
@@ -12160,13 +12160,13 @@
       </c>
       <c r="L40" s="22"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
       <c r="U40" s="29"/>
     </row>
     <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="63"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="21" t="s">
         <v>75</v>
       </c>
@@ -12189,13 +12189,13 @@
       <c r="K41" s="17"/>
       <c r="L41" s="22"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
       <c r="U41" s="29"/>
     </row>
     <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12207,7 +12207,7 @@
       </c>
       <c r="C42" s="3"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="21" t="s">
         <v>77</v>
       </c>
@@ -12218,13 +12218,13 @@
       <c r="K42" s="17"/>
       <c r="L42" s="22"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
       <c r="U42" s="29"/>
     </row>
     <row r="43" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="C43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="63"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="21" t="s">
         <v>79</v>
       </c>
@@ -12251,13 +12251,13 @@
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
       <c r="U43" s="29"/>
     </row>
     <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="63"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="21" t="s">
         <v>82</v>
       </c>
@@ -12280,13 +12280,13 @@
       <c r="K44" s="17"/>
       <c r="L44" s="22"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
       <c r="U44" s="29"/>
     </row>
     <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="63"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="21" t="s">
         <v>84</v>
       </c>
@@ -12309,13 +12309,13 @@
       <c r="K45" s="17"/>
       <c r="L45" s="22"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
       <c r="U45" s="29"/>
     </row>
     <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="63"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="21" t="s">
         <v>85</v>
       </c>
@@ -12342,13 +12342,13 @@
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
       <c r="U46" s="29"/>
     </row>
     <row r="47" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="63"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="21" t="s">
         <v>87</v>
       </c>
@@ -12371,13 +12371,13 @@
       <c r="K47" s="17"/>
       <c r="L47" s="22"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
       <c r="U47" s="29"/>
     </row>
     <row r="48" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12389,7 +12389,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="63"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="21" t="s">
         <v>89</v>
       </c>
@@ -12404,13 +12404,13 @@
       </c>
       <c r="L48" s="22"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
       <c r="U48" s="29"/>
     </row>
     <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="63"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="21" t="s">
         <v>92</v>
       </c>
@@ -12433,13 +12433,13 @@
       <c r="K49" s="17"/>
       <c r="L49" s="22"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
       <c r="U49" s="29"/>
     </row>
     <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="63"/>
+      <c r="F50" s="50"/>
       <c r="G50" s="21" t="s">
         <v>94</v>
       </c>
@@ -12462,13 +12462,13 @@
       <c r="K50" s="17"/>
       <c r="L50" s="22"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
       <c r="U50" s="29"/>
     </row>
     <row r="51" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12480,7 +12480,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="63"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="21" t="s">
         <v>96</v>
       </c>
@@ -12491,13 +12491,13 @@
       <c r="K51" s="17"/>
       <c r="L51" s="22"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
       <c r="U51" s="29"/>
     </row>
     <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12510,7 +12510,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="63"/>
+      <c r="F52" s="50"/>
       <c r="G52" s="21" t="s">
         <v>98</v>
       </c>
@@ -12521,20 +12521,20 @@
       <c r="K52" s="17"/>
       <c r="L52" s="22"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
       <c r="U52" s="29"/>
     </row>
     <row r="53" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
       <c r="B53" s="7"/>
       <c r="C53" s="3"/>
-      <c r="F53" s="63"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="21" t="s">
         <v>99</v>
       </c>
@@ -12545,20 +12545,20 @@
       <c r="K53" s="17"/>
       <c r="L53" s="22"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
       <c r="U53" s="29"/>
     </row>
     <row r="54" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
-      <c r="F54" s="63"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="21" t="s">
         <v>100</v>
       </c>
@@ -12569,20 +12569,20 @@
       <c r="K54" s="17"/>
       <c r="L54" s="22"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
       <c r="U54" s="29"/>
     </row>
     <row r="55" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
-      <c r="F55" s="63"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="21" t="s">
         <v>101</v>
       </c>
@@ -12593,20 +12593,20 @@
       <c r="K55" s="17"/>
       <c r="L55" s="22"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
       <c r="U55" s="29"/>
     </row>
     <row r="56" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="22"/>
       <c r="B56" s="4"/>
       <c r="C56" s="3"/>
-      <c r="F56" s="63"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="21" t="s">
         <v>102</v>
       </c>
@@ -12617,13 +12617,13 @@
       <c r="K56" s="17"/>
       <c r="L56" s="22"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
       <c r="U56" s="29"/>
     </row>
     <row r="57" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12635,7 +12635,7 @@
         <v>371</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="F57" s="63"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="21" t="s">
         <v>104</v>
       </c>
@@ -12650,13 +12650,13 @@
       </c>
       <c r="L57" s="23"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
       <c r="U57" s="29"/>
     </row>
     <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12667,7 +12667,7 @@
         <v>117</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="F58" s="63"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="21" t="s">
         <v>106</v>
       </c>
@@ -12682,13 +12682,13 @@
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
       <c r="U58" s="29"/>
     </row>
     <row r="59" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12699,7 +12699,7 @@
         <v>115</v>
       </c>
       <c r="C59" s="3"/>
-      <c r="F59" s="63"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="21" t="s">
         <v>107</v>
       </c>
@@ -12714,13 +12714,13 @@
       </c>
       <c r="L59" s="22"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
       <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12731,7 +12731,7 @@
         <v>99</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="F60" s="63"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="21" t="s">
         <v>109</v>
       </c>
@@ -12742,13 +12742,13 @@
       <c r="K60" s="17"/>
       <c r="L60" s="22"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
       <c r="U60" s="29"/>
     </row>
     <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -12760,7 +12760,7 @@
         <v>203</v>
       </c>
       <c r="C61" s="6"/>
-      <c r="F61" s="63"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="21" t="s">
         <v>111</v>
       </c>
@@ -12771,20 +12771,20 @@
       <c r="K61" s="17"/>
       <c r="L61" s="22"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
       <c r="U61" s="29"/>
     </row>
     <row r="62" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
-      <c r="F62" s="63"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="21" t="s">
         <v>112</v>
       </c>
@@ -12795,20 +12795,20 @@
       <c r="K62" s="17"/>
       <c r="L62" s="22"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
       <c r="U62" s="29"/>
     </row>
     <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
-      <c r="F63" s="63"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="21" t="s">
         <v>113</v>
       </c>
@@ -12819,20 +12819,20 @@
       <c r="K63" s="17"/>
       <c r="L63" s="22"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
       <c r="U63" s="29"/>
     </row>
     <row r="64" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
-      <c r="F64" s="63"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="21" t="s">
         <v>114</v>
       </c>
@@ -12843,24 +12843,24 @@
       <c r="K64" s="17"/>
       <c r="L64" s="22"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
       <c r="U64" s="29"/>
     </row>
     <row r="65" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="63"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="50"/>
       <c r="G65" s="21" t="s">
         <v>116</v>
       </c>
@@ -12871,22 +12871,22 @@
       <c r="K65" s="17"/>
       <c r="L65" s="22"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
       <c r="U65" s="29"/>
     </row>
     <row r="66" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="63"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="50"/>
       <c r="G66" s="21" t="s">
         <v>117</v>
       </c>
@@ -12897,13 +12897,13 @@
       <c r="K66" s="17"/>
       <c r="L66" s="22"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
       <c r="U66" s="29"/>
     </row>
     <row r="67" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -12927,64 +12927,64 @@
       </c>
       <c r="L67" s="22"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
       <c r="U67" s="29"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
     </row>
     <row r="69" spans="1:21" ht="39" x14ac:dyDescent="0.6">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="56" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="58"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="48" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12999,7 +12999,7 @@
       <c r="E71" s="18">
         <v>45</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="9" t="s">
         <v>2</v>
       </c>
@@ -13014,17 +13014,17 @@
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="50"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="66"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13035,11 +13035,11 @@
         <v>5</v>
       </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="46"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="60"/>
       <c r="G73" s="9" t="s">
         <v>51</v>
       </c>
@@ -13059,7 +13059,7 @@
       <c r="C74" s="13"/>
       <c r="D74" s="26"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="26" t="s">
         <v>124</v>
       </c>
@@ -13079,7 +13079,7 @@
       <c r="C75" s="13"/>
       <c r="D75" s="26"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="26" t="s">
         <v>126</v>
       </c>
@@ -13099,7 +13099,7 @@
       <c r="C76" s="13"/>
       <c r="D76" s="26"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="26" t="s">
         <v>128</v>
       </c>
@@ -13117,7 +13117,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="13"/>
-      <c r="F77" s="46"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="26" t="s">
         <v>131</v>
       </c>
@@ -13137,7 +13137,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="27"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="26" t="s">
         <v>133</v>
       </c>
@@ -13157,7 +13157,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="27"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="26" t="s">
         <v>135</v>
       </c>
@@ -13177,7 +13177,7 @@
       <c r="C80" s="13"/>
       <c r="D80" s="27"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="26" t="s">
         <v>137</v>
       </c>
@@ -13197,7 +13197,7 @@
       <c r="C81" s="13"/>
       <c r="D81" s="27"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="26" t="s">
         <v>139</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="C82" s="13"/>
       <c r="D82" s="27"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="26" t="s">
         <v>141</v>
       </c>
@@ -13237,7 +13237,7 @@
       <c r="C83" s="13"/>
       <c r="D83" s="27"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="26" t="s">
         <v>144</v>
       </c>
@@ -13257,7 +13257,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="27"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="26" t="s">
         <v>146</v>
       </c>
@@ -13277,7 +13277,7 @@
       <c r="C85" s="13"/>
       <c r="D85" s="27"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="26" t="s">
         <v>149</v>
       </c>
@@ -13297,7 +13297,7 @@
       <c r="C86" s="13"/>
       <c r="D86" s="27"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="26" t="s">
         <v>151</v>
       </c>
@@ -13317,7 +13317,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="27"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="26" t="s">
         <v>153</v>
       </c>
@@ -13337,7 +13337,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="27"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="26" t="s">
         <v>155</v>
       </c>
@@ -13357,7 +13357,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="27"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="60"/>
       <c r="G89" s="26" t="s">
         <v>157</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="27"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="26" t="s">
         <v>159</v>
       </c>
@@ -13397,7 +13397,7 @@
       <c r="C91" s="13"/>
       <c r="D91" s="27"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="26" t="s">
         <v>161</v>
       </c>
@@ -13417,7 +13417,7 @@
       <c r="C92" s="13"/>
       <c r="D92" s="27"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="26" t="s">
         <v>163</v>
       </c>
@@ -13436,7 +13436,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="27"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="60"/>
       <c r="G93" s="26" t="s">
         <v>165</v>
       </c>
@@ -13455,7 +13455,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="27"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="26" t="s">
         <v>167</v>
       </c>
@@ -13474,7 +13474,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="27"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="60"/>
       <c r="G95" s="26" t="s">
         <v>169</v>
       </c>
@@ -13493,7 +13493,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="27"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="26" t="s">
         <v>171</v>
       </c>
@@ -13512,7 +13512,7 @@
       <c r="C97" s="13"/>
       <c r="D97" s="27"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="60"/>
       <c r="G97" s="26" t="s">
         <v>173</v>
       </c>
@@ -13531,7 +13531,7 @@
       <c r="C98" s="13"/>
       <c r="D98" s="27"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="26"/>
       <c r="H98" s="4"/>
       <c r="I98" s="13"/>
@@ -13546,7 +13546,7 @@
       <c r="C99" s="13"/>
       <c r="D99" s="27"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="60"/>
       <c r="G99" s="26"/>
       <c r="H99" s="4"/>
       <c r="I99" s="13"/>
@@ -13561,7 +13561,7 @@
       <c r="C100" s="13"/>
       <c r="D100" s="27"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="47"/>
+      <c r="F100" s="61"/>
       <c r="G100" s="26"/>
       <c r="H100" s="4"/>
       <c r="I100" s="13"/>
@@ -13576,7 +13576,7 @@
       <c r="C101" s="13"/>
       <c r="D101" s="27"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="38"/>
+      <c r="F101" s="71"/>
       <c r="G101" s="26"/>
       <c r="H101" s="4"/>
       <c r="I101" s="13"/>
@@ -13591,7 +13591,7 @@
       <c r="C102" s="13"/>
       <c r="D102" s="27"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="39"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="26"/>
       <c r="H102" s="4"/>
       <c r="I102" s="13"/>
@@ -13606,7 +13606,7 @@
       <c r="C103" s="13"/>
       <c r="D103" s="27"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="39"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="26"/>
       <c r="H103" s="4"/>
       <c r="I103" s="13"/>
@@ -13621,7 +13621,7 @@
       <c r="C104" s="13"/>
       <c r="D104" s="27"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="39"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="26"/>
       <c r="H104" s="4"/>
       <c r="I104" s="13"/>
@@ -13636,7 +13636,7 @@
       <c r="C105" s="13"/>
       <c r="D105" s="27"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="39"/>
+      <c r="F105" s="49"/>
       <c r="G105" s="26"/>
       <c r="H105" s="4"/>
       <c r="I105" s="13"/>
@@ -13651,7 +13651,7 @@
       <c r="C106" s="13"/>
       <c r="D106" s="27"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="39"/>
+      <c r="F106" s="49"/>
       <c r="G106" s="26"/>
       <c r="H106" s="4"/>
       <c r="I106" s="13"/>
@@ -13666,7 +13666,7 @@
       <c r="C107" s="13"/>
       <c r="D107" s="27"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="39"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="26"/>
       <c r="H107" s="4"/>
       <c r="I107" s="13"/>
@@ -13681,7 +13681,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="27"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="39"/>
+      <c r="F108" s="49"/>
       <c r="G108" s="26"/>
       <c r="H108" s="4"/>
       <c r="I108" s="13"/>
@@ -13696,7 +13696,7 @@
       <c r="C109" s="13"/>
       <c r="D109" s="27"/>
       <c r="E109" s="16"/>
-      <c r="F109" s="39"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="26"/>
       <c r="H109" s="4"/>
       <c r="I109" s="13"/>
@@ -13711,7 +13711,7 @@
       <c r="C110" s="13"/>
       <c r="D110" s="27"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="39"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="26"/>
       <c r="H110" s="4"/>
       <c r="I110" s="13"/>
@@ -13726,7 +13726,7 @@
       <c r="C111" s="13"/>
       <c r="D111" s="27"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="39"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="26"/>
       <c r="H111" s="4"/>
       <c r="I111" s="13"/>
@@ -13741,7 +13741,7 @@
       <c r="C112" s="13"/>
       <c r="D112" s="27"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="39"/>
+      <c r="F112" s="49"/>
       <c r="G112" s="26"/>
       <c r="H112" s="4"/>
       <c r="I112" s="13"/>
@@ -13758,39 +13758,39 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:12" ht="39" x14ac:dyDescent="0.6">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="42" t="s">
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="44"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="74"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="48" t="s">
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -13803,7 +13803,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="18"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="60"/>
       <c r="G116" s="9" t="s">
         <v>2</v>
       </c>
@@ -13816,17 +13816,17 @@
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="49"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="50"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="66"/>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -13837,11 +13837,11 @@
         <v>5</v>
       </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="52"/>
-      <c r="F118" s="46"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="60"/>
       <c r="G118" s="9" t="s">
         <v>51</v>
       </c>
@@ -13859,7 +13859,7 @@
       <c r="C119" s="13"/>
       <c r="D119" s="37"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="46"/>
+      <c r="F119" s="60"/>
       <c r="G119" s="26"/>
       <c r="H119" s="4"/>
       <c r="I119" s="13"/>
@@ -13872,7 +13872,7 @@
       <c r="C120" s="13"/>
       <c r="D120" s="37"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="46"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="26"/>
       <c r="H120" s="4"/>
       <c r="I120" s="13"/>
@@ -13887,7 +13887,7 @@
         <v>194</v>
       </c>
       <c r="E121" s="16"/>
-      <c r="F121" s="46"/>
+      <c r="F121" s="60"/>
       <c r="G121" s="26"/>
       <c r="H121" s="4"/>
       <c r="I121" s="13"/>
@@ -13902,7 +13902,7 @@
         <v>196</v>
       </c>
       <c r="E122" s="16"/>
-      <c r="F122" s="46"/>
+      <c r="F122" s="60"/>
       <c r="G122" s="26"/>
       <c r="H122" s="4"/>
       <c r="I122" s="13"/>
@@ -13915,7 +13915,7 @@
       <c r="C123" s="13"/>
       <c r="D123" s="27"/>
       <c r="E123" s="16"/>
-      <c r="F123" s="46"/>
+      <c r="F123" s="60"/>
       <c r="G123" s="26"/>
       <c r="H123" s="4"/>
       <c r="I123" s="13"/>
@@ -13928,7 +13928,7 @@
       <c r="C124" s="13"/>
       <c r="D124" s="27"/>
       <c r="E124" s="16"/>
-      <c r="F124" s="46"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="26"/>
       <c r="H124" s="4"/>
       <c r="I124" s="13"/>
@@ -13941,7 +13941,7 @@
       <c r="C125" s="13"/>
       <c r="D125" s="27"/>
       <c r="E125" s="16"/>
-      <c r="F125" s="46"/>
+      <c r="F125" s="60"/>
       <c r="G125" s="26"/>
       <c r="H125" s="4"/>
       <c r="I125" s="13"/>
@@ -13954,7 +13954,7 @@
       <c r="C126" s="13"/>
       <c r="D126" s="27"/>
       <c r="E126" s="16"/>
-      <c r="F126" s="46"/>
+      <c r="F126" s="60"/>
       <c r="G126" s="26"/>
       <c r="H126" s="4"/>
       <c r="I126" s="13"/>
@@ -13965,7 +13965,7 @@
       <c r="C127" s="13"/>
       <c r="D127" s="27"/>
       <c r="E127" s="16"/>
-      <c r="F127" s="46"/>
+      <c r="F127" s="60"/>
       <c r="G127" s="26"/>
       <c r="H127" s="4"/>
       <c r="I127" s="13"/>
@@ -13976,7 +13976,7 @@
       <c r="C128" s="13"/>
       <c r="D128" s="27"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="46"/>
+      <c r="F128" s="60"/>
       <c r="G128" s="26"/>
       <c r="H128" s="4"/>
       <c r="I128" s="13"/>
@@ -13987,7 +13987,7 @@
       <c r="C129" s="13"/>
       <c r="D129" s="27"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="60"/>
       <c r="G129" s="26"/>
       <c r="H129" s="4"/>
       <c r="I129" s="13"/>
@@ -13998,7 +13998,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="27"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="60"/>
       <c r="G130" s="26"/>
       <c r="H130" s="4"/>
       <c r="I130" s="13"/>
@@ -14009,7 +14009,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="27"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="60"/>
       <c r="G131" s="26"/>
       <c r="H131" s="4"/>
       <c r="I131" s="13"/>
@@ -14020,7 +14020,7 @@
       <c r="C132" s="13"/>
       <c r="D132" s="27"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="60"/>
       <c r="G132" s="26"/>
       <c r="H132" s="4"/>
       <c r="I132" s="13"/>
@@ -14031,7 +14031,7 @@
       <c r="C133" s="13"/>
       <c r="D133" s="27"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="60"/>
       <c r="G133" s="26"/>
       <c r="H133" s="4"/>
       <c r="I133" s="13"/>
@@ -14042,7 +14042,7 @@
       <c r="C134" s="13"/>
       <c r="D134" s="27"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="60"/>
       <c r="G134" s="26"/>
       <c r="H134" s="4"/>
       <c r="I134" s="13"/>
@@ -14053,7 +14053,7 @@
       <c r="C135" s="13"/>
       <c r="D135" s="27"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="60"/>
       <c r="G135" s="26"/>
       <c r="H135" s="4"/>
       <c r="I135" s="13"/>
@@ -14064,7 +14064,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="27"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="60"/>
       <c r="G136" s="26"/>
       <c r="H136" s="4"/>
       <c r="I136" s="13"/>
@@ -14075,7 +14075,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="27"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="60"/>
       <c r="G137" s="26"/>
       <c r="H137" s="4"/>
       <c r="I137" s="13"/>
@@ -14086,7 +14086,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="27"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="60"/>
       <c r="G138" s="26"/>
       <c r="H138" s="4"/>
       <c r="I138" s="13"/>
@@ -14097,7 +14097,7 @@
       <c r="C139" s="13"/>
       <c r="D139" s="27"/>
       <c r="E139" s="16"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="60"/>
       <c r="G139" s="26"/>
       <c r="H139" s="4"/>
       <c r="I139" s="13"/>
@@ -14108,7 +14108,7 @@
       <c r="C140" s="13"/>
       <c r="D140" s="27"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="60"/>
       <c r="G140" s="26"/>
       <c r="H140" s="4"/>
       <c r="I140" s="13"/>
@@ -14119,7 +14119,7 @@
       <c r="C141" s="13"/>
       <c r="D141" s="27"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="60"/>
       <c r="G141" s="26"/>
       <c r="H141" s="4"/>
       <c r="I141" s="13"/>
@@ -14130,7 +14130,7 @@
       <c r="C142" s="13"/>
       <c r="D142" s="27"/>
       <c r="E142" s="16"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="60"/>
       <c r="G142" s="26"/>
       <c r="H142" s="4"/>
       <c r="I142" s="13"/>
@@ -14141,7 +14141,7 @@
       <c r="C143" s="13"/>
       <c r="D143" s="27"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="60"/>
       <c r="G143" s="26"/>
       <c r="H143" s="4"/>
       <c r="I143" s="13"/>
@@ -14152,7 +14152,7 @@
       <c r="C144" s="13"/>
       <c r="D144" s="27"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="60"/>
       <c r="G144" s="26"/>
       <c r="H144" s="4"/>
       <c r="I144" s="13"/>
@@ -14163,7 +14163,7 @@
       <c r="C145" s="13"/>
       <c r="D145" s="27"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="47"/>
+      <c r="F145" s="61"/>
       <c r="G145" s="26"/>
       <c r="H145" s="4"/>
       <c r="I145" s="13"/>
@@ -14174,7 +14174,7 @@
       <c r="C146" s="13"/>
       <c r="D146" s="27"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="38"/>
+      <c r="F146" s="71"/>
       <c r="G146" s="26"/>
       <c r="H146" s="4"/>
       <c r="I146" s="13"/>
@@ -14185,7 +14185,7 @@
       <c r="C147" s="13"/>
       <c r="D147" s="27"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="39"/>
+      <c r="F147" s="49"/>
       <c r="G147" s="26"/>
       <c r="H147" s="4"/>
       <c r="I147" s="13"/>
@@ -14196,7 +14196,7 @@
       <c r="C148" s="13"/>
       <c r="D148" s="27"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="39"/>
+      <c r="F148" s="49"/>
       <c r="G148" s="26"/>
       <c r="H148" s="4"/>
       <c r="I148" s="13"/>
@@ -14207,7 +14207,7 @@
       <c r="C149" s="13"/>
       <c r="D149" s="27"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="39"/>
+      <c r="F149" s="49"/>
       <c r="G149" s="26"/>
       <c r="H149" s="4"/>
       <c r="I149" s="13"/>
@@ -14218,7 +14218,7 @@
       <c r="C150" s="13"/>
       <c r="D150" s="27"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="39"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="26"/>
       <c r="H150" s="4"/>
       <c r="I150" s="13"/>
@@ -14229,7 +14229,7 @@
       <c r="C151" s="13"/>
       <c r="D151" s="27"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="39"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="26"/>
       <c r="H151" s="4"/>
       <c r="I151" s="13"/>
@@ -14240,7 +14240,7 @@
       <c r="C152" s="13"/>
       <c r="D152" s="27"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="39"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="26"/>
       <c r="H152" s="4"/>
       <c r="I152" s="13"/>
@@ -14251,7 +14251,7 @@
       <c r="C153" s="13"/>
       <c r="D153" s="27"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="39"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="26"/>
       <c r="H153" s="4"/>
       <c r="I153" s="13"/>
@@ -14262,7 +14262,7 @@
       <c r="C154" s="13"/>
       <c r="D154" s="27"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="39"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="26"/>
       <c r="H154" s="4"/>
       <c r="I154" s="13"/>
@@ -14273,7 +14273,7 @@
       <c r="C155" s="13"/>
       <c r="D155" s="27"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="39"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="26"/>
       <c r="H155" s="4"/>
       <c r="I155" s="13"/>
@@ -14284,7 +14284,7 @@
       <c r="C156" s="13"/>
       <c r="D156" s="27"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="39"/>
+      <c r="F156" s="49"/>
       <c r="G156" s="26"/>
       <c r="H156" s="4"/>
       <c r="I156" s="13"/>
@@ -14295,7 +14295,7 @@
       <c r="C157" s="13"/>
       <c r="D157" s="27"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="39"/>
+      <c r="F157" s="49"/>
       <c r="G157" s="26"/>
       <c r="H157" s="4"/>
       <c r="I157" s="13"/>
@@ -14312,38 +14312,38 @@
       <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="42" t="s">
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
-      <c r="K159" s="44"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="74"/>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="48" t="s">
+      <c r="B160" s="65"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="48"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
     </row>
     <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
@@ -14357,7 +14357,7 @@
       <c r="E161" s="18">
         <v>32</v>
       </c>
-      <c r="F161" s="46"/>
+      <c r="F161" s="60"/>
       <c r="G161" s="9" t="s">
         <v>2</v>
       </c>
@@ -14369,17 +14369,17 @@
       <c r="K161" s="18"/>
     </row>
     <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A162" s="49"/>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
-      <c r="I162" s="49"/>
-      <c r="J162" s="49"/>
-      <c r="K162" s="50"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="66"/>
     </row>
     <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
@@ -14389,11 +14389,11 @@
         <v>5</v>
       </c>
       <c r="C163" s="13"/>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E163" s="52"/>
-      <c r="F163" s="46"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="60"/>
       <c r="G163" s="9" t="s">
         <v>51</v>
       </c>
@@ -14412,7 +14412,7 @@
       <c r="C164" s="13"/>
       <c r="D164" s="27"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="46"/>
+      <c r="F164" s="60"/>
       <c r="G164" s="26"/>
       <c r="H164" s="4"/>
       <c r="I164" s="13"/>
@@ -14427,7 +14427,7 @@
       <c r="C165" s="13"/>
       <c r="D165" s="27"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="46"/>
+      <c r="F165" s="60"/>
       <c r="G165" s="26"/>
       <c r="H165" s="4"/>
       <c r="I165" s="13"/>
@@ -14442,7 +14442,7 @@
       <c r="C166" s="13"/>
       <c r="D166" s="27"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="46"/>
+      <c r="F166" s="60"/>
       <c r="G166" s="26"/>
       <c r="H166" s="4"/>
       <c r="I166" s="13"/>
@@ -14457,7 +14457,7 @@
       <c r="C167" s="13"/>
       <c r="D167" s="27"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="46"/>
+      <c r="F167" s="60"/>
       <c r="G167" s="26"/>
       <c r="H167" s="4"/>
       <c r="I167" s="13"/>
@@ -14472,7 +14472,7 @@
       <c r="C168" s="13"/>
       <c r="D168" s="27"/>
       <c r="E168" s="16"/>
-      <c r="F168" s="46"/>
+      <c r="F168" s="60"/>
       <c r="G168" s="26"/>
       <c r="H168" s="4"/>
       <c r="I168" s="13"/>
@@ -14487,7 +14487,7 @@
       <c r="C169" s="13"/>
       <c r="D169" s="27"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="46"/>
+      <c r="F169" s="60"/>
       <c r="G169" s="26"/>
       <c r="H169" s="4"/>
       <c r="I169" s="13"/>
@@ -14502,7 +14502,7 @@
       <c r="C170" s="13"/>
       <c r="D170" s="27"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="46"/>
+      <c r="F170" s="60"/>
       <c r="G170" s="26"/>
       <c r="H170" s="4"/>
       <c r="I170" s="13"/>
@@ -14517,7 +14517,7 @@
       <c r="C171" s="13"/>
       <c r="D171" s="27"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="46"/>
+      <c r="F171" s="60"/>
       <c r="G171" s="26"/>
       <c r="H171" s="4"/>
       <c r="I171" s="13"/>
@@ -14532,7 +14532,7 @@
       <c r="C172" s="13"/>
       <c r="D172" s="27"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="46"/>
+      <c r="F172" s="60"/>
       <c r="G172" s="26"/>
       <c r="H172" s="4"/>
       <c r="I172" s="13"/>
@@ -14543,7 +14543,7 @@
       <c r="C173" s="13"/>
       <c r="D173" s="27"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="60"/>
       <c r="G173" s="26"/>
       <c r="H173" s="4"/>
       <c r="I173" s="13"/>
@@ -14554,7 +14554,7 @@
       <c r="C174" s="13"/>
       <c r="D174" s="27"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="46"/>
+      <c r="F174" s="60"/>
       <c r="G174" s="26"/>
       <c r="H174" s="4"/>
       <c r="I174" s="13"/>
@@ -14565,7 +14565,7 @@
       <c r="C175" s="13"/>
       <c r="D175" s="27"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="46"/>
+      <c r="F175" s="60"/>
       <c r="G175" s="26"/>
       <c r="H175" s="4"/>
       <c r="I175" s="13"/>
@@ -14576,7 +14576,7 @@
       <c r="C176" s="13"/>
       <c r="D176" s="27"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="60"/>
       <c r="G176" s="26"/>
       <c r="H176" s="4"/>
       <c r="I176" s="13"/>
@@ -14587,7 +14587,7 @@
       <c r="C177" s="13"/>
       <c r="D177" s="27"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="46"/>
+      <c r="F177" s="60"/>
       <c r="G177" s="26"/>
       <c r="H177" s="4"/>
       <c r="I177" s="13"/>
@@ -14598,7 +14598,7 @@
       <c r="C178" s="13"/>
       <c r="D178" s="27"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="46"/>
+      <c r="F178" s="60"/>
       <c r="G178" s="26"/>
       <c r="H178" s="4"/>
       <c r="I178" s="13"/>
@@ -14609,7 +14609,7 @@
       <c r="C179" s="13"/>
       <c r="D179" s="27"/>
       <c r="E179" s="16"/>
-      <c r="F179" s="46"/>
+      <c r="F179" s="60"/>
       <c r="G179" s="26"/>
       <c r="H179" s="4"/>
       <c r="I179" s="13"/>
@@ -14620,7 +14620,7 @@
       <c r="C180" s="13"/>
       <c r="D180" s="27"/>
       <c r="E180" s="16"/>
-      <c r="F180" s="46"/>
+      <c r="F180" s="60"/>
       <c r="G180" s="26"/>
       <c r="H180" s="4"/>
       <c r="I180" s="13"/>
@@ -14631,7 +14631,7 @@
       <c r="C181" s="13"/>
       <c r="D181" s="27"/>
       <c r="E181" s="16"/>
-      <c r="F181" s="46"/>
+      <c r="F181" s="60"/>
       <c r="G181" s="26"/>
       <c r="H181" s="4"/>
       <c r="I181" s="13"/>
@@ -14642,7 +14642,7 @@
       <c r="C182" s="13"/>
       <c r="D182" s="27"/>
       <c r="E182" s="16"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="60"/>
       <c r="G182" s="26"/>
       <c r="H182" s="4"/>
       <c r="I182" s="13"/>
@@ -14653,7 +14653,7 @@
       <c r="C183" s="13"/>
       <c r="D183" s="27"/>
       <c r="E183" s="16"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="60"/>
       <c r="G183" s="26"/>
       <c r="H183" s="4"/>
       <c r="I183" s="13"/>
@@ -14664,7 +14664,7 @@
       <c r="C184" s="13"/>
       <c r="D184" s="27"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="46"/>
+      <c r="F184" s="60"/>
       <c r="G184" s="26"/>
       <c r="H184" s="4"/>
       <c r="I184" s="13"/>
@@ -14675,7 +14675,7 @@
       <c r="C185" s="13"/>
       <c r="D185" s="27"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="46"/>
+      <c r="F185" s="60"/>
       <c r="G185" s="26"/>
       <c r="H185" s="4"/>
       <c r="I185" s="13"/>
@@ -14686,7 +14686,7 @@
       <c r="C186" s="13"/>
       <c r="D186" s="27"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="46"/>
+      <c r="F186" s="60"/>
       <c r="G186" s="26"/>
       <c r="H186" s="4"/>
       <c r="I186" s="13"/>
@@ -14697,7 +14697,7 @@
       <c r="C187" s="13"/>
       <c r="D187" s="27"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="60"/>
       <c r="G187" s="26"/>
       <c r="H187" s="4"/>
       <c r="I187" s="13"/>
@@ -14708,7 +14708,7 @@
       <c r="C188" s="13"/>
       <c r="D188" s="27"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="60"/>
       <c r="G188" s="26"/>
       <c r="H188" s="4"/>
       <c r="I188" s="13"/>
@@ -14719,7 +14719,7 @@
       <c r="C189" s="13"/>
       <c r="D189" s="27"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="60"/>
       <c r="G189" s="26"/>
       <c r="H189" s="4"/>
       <c r="I189" s="13"/>
@@ -14730,7 +14730,7 @@
       <c r="C190" s="13"/>
       <c r="D190" s="27"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="47"/>
+      <c r="F190" s="61"/>
       <c r="G190" s="26"/>
       <c r="H190" s="4"/>
       <c r="I190" s="13"/>
@@ -14857,49 +14857,49 @@
       <c r="I201" s="13"/>
     </row>
     <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="41"/>
-      <c r="E202" s="41"/>
-      <c r="F202" s="41"/>
-      <c r="G202" s="41"/>
-      <c r="H202" s="41"/>
-      <c r="I202" s="41"/>
+      <c r="A202" s="75"/>
+      <c r="B202" s="76"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="76"/>
+      <c r="E202" s="76"/>
+      <c r="F202" s="76"/>
+      <c r="G202" s="76"/>
+      <c r="H202" s="76"/>
+      <c r="I202" s="76"/>
     </row>
     <row r="203" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A203" s="53" t="s">
+      <c r="A203" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="42" t="s">
+      <c r="B203" s="38"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="38"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="44"/>
+      <c r="H203" s="73"/>
+      <c r="I203" s="73"/>
+      <c r="J203" s="73"/>
+      <c r="K203" s="74"/>
     </row>
     <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="48" t="s">
+      <c r="A204" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="B204" s="48"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="48" t="s">
+      <c r="B204" s="65"/>
+      <c r="C204" s="65"/>
+      <c r="D204" s="65"/>
+      <c r="E204" s="65"/>
+      <c r="F204" s="60"/>
+      <c r="G204" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="H204" s="48"/>
-      <c r="I204" s="48"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="48"/>
+      <c r="H204" s="65"/>
+      <c r="I204" s="65"/>
+      <c r="J204" s="65"/>
+      <c r="K204" s="65"/>
     </row>
     <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
@@ -14913,7 +14913,7 @@
       <c r="E205" s="18">
         <v>147</v>
       </c>
-      <c r="F205" s="46"/>
+      <c r="F205" s="60"/>
       <c r="G205" s="9" t="s">
         <v>2</v>
       </c>
@@ -14925,17 +14925,17 @@
       <c r="K205" s="18"/>
     </row>
     <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="49"/>
-      <c r="B206" s="49"/>
-      <c r="C206" s="49"/>
-      <c r="D206" s="49"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="49"/>
-      <c r="H206" s="49"/>
-      <c r="I206" s="49"/>
-      <c r="J206" s="49"/>
-      <c r="K206" s="50"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="44"/>
+      <c r="I206" s="44"/>
+      <c r="J206" s="44"/>
+      <c r="K206" s="66"/>
     </row>
     <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
@@ -14945,11 +14945,11 @@
         <v>5</v>
       </c>
       <c r="C207" s="13"/>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E207" s="52"/>
-      <c r="F207" s="46"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="60"/>
       <c r="G207" s="9" t="s">
         <v>51</v>
       </c>
@@ -14972,7 +14972,7 @@
       <c r="E208" s="16">
         <v>8</v>
       </c>
-      <c r="F208" s="46"/>
+      <c r="F208" s="60"/>
       <c r="G208" s="26"/>
       <c r="H208" s="4"/>
       <c r="I208" s="13"/>
@@ -14991,7 +14991,7 @@
       <c r="E209" s="16">
         <v>12</v>
       </c>
-      <c r="F209" s="46"/>
+      <c r="F209" s="60"/>
       <c r="G209" s="26"/>
       <c r="H209" s="4"/>
       <c r="I209" s="13"/>
@@ -15010,7 +15010,7 @@
       <c r="E210" s="16">
         <v>3</v>
       </c>
-      <c r="F210" s="46"/>
+      <c r="F210" s="60"/>
       <c r="G210" s="26"/>
       <c r="H210" s="4"/>
       <c r="I210" s="13"/>
@@ -15029,7 +15029,7 @@
       <c r="E211" s="16">
         <v>5</v>
       </c>
-      <c r="F211" s="46"/>
+      <c r="F211" s="60"/>
       <c r="G211" s="26"/>
       <c r="H211" s="4"/>
       <c r="I211" s="13"/>
@@ -15044,7 +15044,7 @@
       <c r="E212" s="16">
         <v>4</v>
       </c>
-      <c r="F212" s="46"/>
+      <c r="F212" s="60"/>
       <c r="G212" s="26"/>
       <c r="H212" s="4"/>
       <c r="I212" s="13"/>
@@ -15059,7 +15059,7 @@
       <c r="E213" s="16">
         <v>6</v>
       </c>
-      <c r="F213" s="46"/>
+      <c r="F213" s="60"/>
       <c r="G213" s="26"/>
       <c r="H213" s="4"/>
       <c r="I213" s="13"/>
@@ -15074,7 +15074,7 @@
       <c r="E214" s="16">
         <v>3</v>
       </c>
-      <c r="F214" s="46"/>
+      <c r="F214" s="60"/>
       <c r="G214" s="26"/>
       <c r="H214" s="4"/>
       <c r="I214" s="13"/>
@@ -15089,7 +15089,7 @@
       <c r="E215" s="16">
         <v>1</v>
       </c>
-      <c r="F215" s="46"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="26"/>
       <c r="H215" s="4"/>
       <c r="I215" s="13"/>
@@ -15104,7 +15104,7 @@
       <c r="E216" s="16">
         <v>3</v>
       </c>
-      <c r="F216" s="46"/>
+      <c r="F216" s="60"/>
       <c r="G216" s="26"/>
       <c r="H216" s="4"/>
       <c r="I216" s="13"/>
@@ -15119,7 +15119,7 @@
       <c r="E217" s="16">
         <v>6</v>
       </c>
-      <c r="F217" s="46"/>
+      <c r="F217" s="60"/>
       <c r="G217" s="26"/>
       <c r="H217" s="4"/>
       <c r="I217" s="13"/>
@@ -15134,7 +15134,7 @@
       <c r="E218" s="16">
         <v>1</v>
       </c>
-      <c r="F218" s="46"/>
+      <c r="F218" s="60"/>
       <c r="G218" s="26"/>
       <c r="H218" s="4"/>
       <c r="I218" s="13"/>
@@ -15149,7 +15149,7 @@
       <c r="E219" s="16">
         <v>3</v>
       </c>
-      <c r="F219" s="46"/>
+      <c r="F219" s="60"/>
       <c r="G219" s="26"/>
       <c r="H219" s="4"/>
       <c r="I219" s="13"/>
@@ -15164,7 +15164,7 @@
       <c r="E220" s="16">
         <v>3</v>
       </c>
-      <c r="F220" s="46"/>
+      <c r="F220" s="60"/>
       <c r="G220" s="26"/>
       <c r="H220" s="4"/>
       <c r="I220" s="13"/>
@@ -15179,7 +15179,7 @@
       <c r="E221" s="16">
         <v>1</v>
       </c>
-      <c r="F221" s="46"/>
+      <c r="F221" s="60"/>
       <c r="G221" s="26"/>
       <c r="H221" s="4"/>
       <c r="I221" s="13"/>
@@ -15194,7 +15194,7 @@
       <c r="E222" s="16">
         <v>19</v>
       </c>
-      <c r="F222" s="46"/>
+      <c r="F222" s="60"/>
       <c r="G222" s="26"/>
       <c r="H222" s="4"/>
       <c r="I222" s="13"/>
@@ -15209,7 +15209,7 @@
       <c r="E223" s="16">
         <v>4</v>
       </c>
-      <c r="F223" s="46"/>
+      <c r="F223" s="60"/>
       <c r="G223" s="26"/>
       <c r="H223" s="4"/>
       <c r="I223" s="13"/>
@@ -15224,7 +15224,7 @@
       <c r="E224" s="16">
         <v>6</v>
       </c>
-      <c r="F224" s="46"/>
+      <c r="F224" s="60"/>
       <c r="G224" s="26"/>
       <c r="H224" s="4"/>
       <c r="I224" s="13"/>
@@ -15239,7 +15239,7 @@
       <c r="E225" s="16">
         <v>4</v>
       </c>
-      <c r="F225" s="46"/>
+      <c r="F225" s="60"/>
       <c r="G225" s="26"/>
       <c r="H225" s="4"/>
       <c r="I225" s="13"/>
@@ -15254,7 +15254,7 @@
       <c r="E226" s="16">
         <v>1</v>
       </c>
-      <c r="F226" s="46"/>
+      <c r="F226" s="60"/>
       <c r="G226" s="26"/>
       <c r="H226" s="4"/>
       <c r="I226" s="13"/>
@@ -15269,7 +15269,7 @@
       <c r="E227" s="16">
         <v>2</v>
       </c>
-      <c r="F227" s="46"/>
+      <c r="F227" s="60"/>
       <c r="G227" s="26"/>
       <c r="H227" s="4"/>
       <c r="I227" s="13"/>
@@ -15280,7 +15280,7 @@
       <c r="C228" s="13"/>
       <c r="D228" s="27"/>
       <c r="E228" s="16"/>
-      <c r="F228" s="46"/>
+      <c r="F228" s="60"/>
       <c r="G228" s="26"/>
       <c r="H228" s="4"/>
       <c r="I228" s="13"/>
@@ -15291,7 +15291,7 @@
       <c r="C229" s="13"/>
       <c r="D229" s="27"/>
       <c r="E229" s="16"/>
-      <c r="F229" s="46"/>
+      <c r="F229" s="60"/>
       <c r="G229" s="26"/>
       <c r="H229" s="4"/>
       <c r="I229" s="13"/>
@@ -15302,7 +15302,7 @@
       <c r="C230" s="13"/>
       <c r="D230" s="27"/>
       <c r="E230" s="16"/>
-      <c r="F230" s="46"/>
+      <c r="F230" s="60"/>
       <c r="G230" s="26"/>
       <c r="H230" s="4"/>
       <c r="I230" s="13"/>
@@ -15313,7 +15313,7 @@
       <c r="C231" s="13"/>
       <c r="D231" s="27"/>
       <c r="E231" s="16"/>
-      <c r="F231" s="46"/>
+      <c r="F231" s="60"/>
       <c r="G231" s="26"/>
       <c r="H231" s="4"/>
       <c r="I231" s="13"/>
@@ -15324,7 +15324,7 @@
       <c r="C232" s="13"/>
       <c r="D232" s="27"/>
       <c r="E232" s="16"/>
-      <c r="F232" s="46"/>
+      <c r="F232" s="60"/>
       <c r="G232" s="26"/>
       <c r="H232" s="4"/>
       <c r="I232" s="13"/>
@@ -15335,7 +15335,7 @@
       <c r="C233" s="13"/>
       <c r="D233" s="27"/>
       <c r="E233" s="16"/>
-      <c r="F233" s="46"/>
+      <c r="F233" s="60"/>
       <c r="G233" s="26"/>
       <c r="H233" s="4"/>
       <c r="I233" s="13"/>
@@ -15346,7 +15346,7 @@
       <c r="C234" s="13"/>
       <c r="D234" s="27"/>
       <c r="E234" s="16"/>
-      <c r="F234" s="47"/>
+      <c r="F234" s="61"/>
       <c r="G234" s="26"/>
       <c r="H234" s="4"/>
       <c r="I234" s="13"/>
@@ -15357,7 +15357,7 @@
       <c r="C235" s="13"/>
       <c r="D235" s="27"/>
       <c r="E235" s="16"/>
-      <c r="F235" s="38"/>
+      <c r="F235" s="71"/>
       <c r="G235" s="26"/>
       <c r="H235" s="4"/>
       <c r="I235" s="13"/>
@@ -15368,7 +15368,7 @@
       <c r="C236" s="13"/>
       <c r="D236" s="27"/>
       <c r="E236" s="16"/>
-      <c r="F236" s="39"/>
+      <c r="F236" s="49"/>
       <c r="G236" s="26"/>
       <c r="H236" s="4"/>
       <c r="I236" s="13"/>
@@ -15379,7 +15379,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="27"/>
       <c r="E237" s="16"/>
-      <c r="F237" s="39"/>
+      <c r="F237" s="49"/>
       <c r="G237" s="26"/>
       <c r="H237" s="4"/>
       <c r="I237" s="13"/>
@@ -15390,7 +15390,7 @@
       <c r="C238" s="13"/>
       <c r="D238" s="27"/>
       <c r="E238" s="16"/>
-      <c r="F238" s="39"/>
+      <c r="F238" s="49"/>
       <c r="G238" s="26"/>
       <c r="H238" s="4"/>
       <c r="I238" s="13"/>
@@ -15401,7 +15401,7 @@
       <c r="C239" s="13"/>
       <c r="D239" s="27"/>
       <c r="E239" s="16"/>
-      <c r="F239" s="39"/>
+      <c r="F239" s="49"/>
       <c r="G239" s="26"/>
       <c r="H239" s="4"/>
       <c r="I239" s="13"/>
@@ -15412,7 +15412,7 @@
       <c r="C240" s="13"/>
       <c r="D240" s="27"/>
       <c r="E240" s="16"/>
-      <c r="F240" s="39"/>
+      <c r="F240" s="49"/>
       <c r="G240" s="26"/>
       <c r="H240" s="4"/>
       <c r="I240" s="13"/>
@@ -15423,7 +15423,7 @@
       <c r="C241" s="13"/>
       <c r="D241" s="27"/>
       <c r="E241" s="16"/>
-      <c r="F241" s="39"/>
+      <c r="F241" s="49"/>
       <c r="G241" s="26"/>
       <c r="H241" s="4"/>
       <c r="I241" s="13"/>
@@ -15434,7 +15434,7 @@
       <c r="C242" s="13"/>
       <c r="D242" s="27"/>
       <c r="E242" s="16"/>
-      <c r="F242" s="39"/>
+      <c r="F242" s="49"/>
       <c r="G242" s="26"/>
       <c r="H242" s="4"/>
       <c r="I242" s="13"/>
@@ -15445,7 +15445,7 @@
       <c r="C243" s="13"/>
       <c r="D243" s="27"/>
       <c r="E243" s="16"/>
-      <c r="F243" s="39"/>
+      <c r="F243" s="49"/>
       <c r="G243" s="26"/>
       <c r="H243" s="4"/>
       <c r="I243" s="13"/>
@@ -15456,7 +15456,7 @@
       <c r="C244" s="13"/>
       <c r="D244" s="27"/>
       <c r="E244" s="16"/>
-      <c r="F244" s="39"/>
+      <c r="F244" s="49"/>
       <c r="G244" s="26"/>
       <c r="H244" s="4"/>
       <c r="I244" s="13"/>
@@ -15467,7 +15467,7 @@
       <c r="C245" s="13"/>
       <c r="D245" s="27"/>
       <c r="E245" s="16"/>
-      <c r="F245" s="39"/>
+      <c r="F245" s="49"/>
       <c r="G245" s="26"/>
       <c r="H245" s="4"/>
       <c r="I245" s="13"/>
@@ -15478,55 +15478,55 @@
       <c r="C246" s="13"/>
       <c r="D246" s="27"/>
       <c r="E246" s="16"/>
-      <c r="F246" s="39"/>
+      <c r="F246" s="49"/>
       <c r="G246" s="26"/>
       <c r="H246" s="4"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
-      <c r="B247" s="41"/>
-      <c r="C247" s="41"/>
-      <c r="D247" s="41"/>
-      <c r="E247" s="41"/>
-      <c r="F247" s="41"/>
-      <c r="G247" s="41"/>
-      <c r="H247" s="41"/>
-      <c r="I247" s="41"/>
+      <c r="A247" s="75"/>
+      <c r="B247" s="76"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="76"/>
+      <c r="E247" s="76"/>
+      <c r="F247" s="76"/>
+      <c r="G247" s="76"/>
+      <c r="H247" s="76"/>
+      <c r="I247" s="76"/>
     </row>
     <row r="248" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A248" s="42" t="s">
+      <c r="A248" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="43"/>
-      <c r="E248" s="44"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="42" t="s">
+      <c r="B248" s="73"/>
+      <c r="C248" s="73"/>
+      <c r="D248" s="73"/>
+      <c r="E248" s="74"/>
+      <c r="F248" s="59"/>
+      <c r="G248" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="H248" s="43"/>
-      <c r="I248" s="43"/>
-      <c r="J248" s="43"/>
-      <c r="K248" s="44"/>
+      <c r="H248" s="73"/>
+      <c r="I248" s="73"/>
+      <c r="J248" s="73"/>
+      <c r="K248" s="74"/>
     </row>
     <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="48" t="s">
+      <c r="A249" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="48"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48"/>
-      <c r="E249" s="48"/>
-      <c r="F249" s="46"/>
-      <c r="G249" s="48" t="s">
+      <c r="B249" s="65"/>
+      <c r="C249" s="65"/>
+      <c r="D249" s="65"/>
+      <c r="E249" s="65"/>
+      <c r="F249" s="60"/>
+      <c r="G249" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="H249" s="48"/>
-      <c r="I249" s="48"/>
-      <c r="J249" s="48"/>
-      <c r="K249" s="48"/>
+      <c r="H249" s="65"/>
+      <c r="I249" s="65"/>
+      <c r="J249" s="65"/>
+      <c r="K249" s="65"/>
     </row>
     <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
@@ -15540,7 +15540,7 @@
       <c r="E250" s="18">
         <v>32</v>
       </c>
-      <c r="F250" s="46"/>
+      <c r="F250" s="60"/>
       <c r="G250" s="9" t="s">
         <v>2</v>
       </c>
@@ -15552,17 +15552,17 @@
       <c r="K250" s="18"/>
     </row>
     <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="49"/>
-      <c r="B251" s="49"/>
-      <c r="C251" s="49"/>
-      <c r="D251" s="49"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="46"/>
-      <c r="G251" s="49"/>
-      <c r="H251" s="49"/>
-      <c r="I251" s="49"/>
-      <c r="J251" s="49"/>
-      <c r="K251" s="50"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="44"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="60"/>
+      <c r="G251" s="44"/>
+      <c r="H251" s="44"/>
+      <c r="I251" s="44"/>
+      <c r="J251" s="44"/>
+      <c r="K251" s="66"/>
     </row>
     <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
@@ -15572,11 +15572,11 @@
         <v>5</v>
       </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="51" t="s">
+      <c r="D252" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E252" s="52"/>
-      <c r="F252" s="46"/>
+      <c r="E252" s="67"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="9" t="s">
         <v>51</v>
       </c>
@@ -15591,7 +15591,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="27"/>
       <c r="E253" s="16"/>
-      <c r="F253" s="46"/>
+      <c r="F253" s="60"/>
       <c r="G253" s="26"/>
       <c r="H253" s="4"/>
       <c r="I253" s="13"/>
@@ -15602,7 +15602,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="27"/>
       <c r="E254" s="16"/>
-      <c r="F254" s="46"/>
+      <c r="F254" s="60"/>
       <c r="G254" s="26"/>
       <c r="H254" s="4"/>
       <c r="I254" s="13"/>
@@ -15613,7 +15613,7 @@
       <c r="C255" s="13"/>
       <c r="D255" s="27"/>
       <c r="E255" s="16"/>
-      <c r="F255" s="46"/>
+      <c r="F255" s="60"/>
       <c r="G255" s="26"/>
       <c r="H255" s="4"/>
       <c r="I255" s="13"/>
@@ -15624,7 +15624,7 @@
       <c r="C256" s="13"/>
       <c r="D256" s="27"/>
       <c r="E256" s="16"/>
-      <c r="F256" s="46"/>
+      <c r="F256" s="60"/>
       <c r="G256" s="26"/>
       <c r="H256" s="4"/>
       <c r="I256" s="13"/>
@@ -15635,7 +15635,7 @@
       <c r="C257" s="13"/>
       <c r="D257" s="27"/>
       <c r="E257" s="16"/>
-      <c r="F257" s="46"/>
+      <c r="F257" s="60"/>
       <c r="G257" s="26"/>
       <c r="H257" s="4"/>
       <c r="I257" s="13"/>
@@ -15646,7 +15646,7 @@
       <c r="C258" s="13"/>
       <c r="D258" s="27"/>
       <c r="E258" s="16"/>
-      <c r="F258" s="46"/>
+      <c r="F258" s="60"/>
       <c r="G258" s="26"/>
       <c r="H258" s="4"/>
       <c r="I258" s="13"/>
@@ -15657,7 +15657,7 @@
       <c r="C259" s="13"/>
       <c r="D259" s="27"/>
       <c r="E259" s="16"/>
-      <c r="F259" s="46"/>
+      <c r="F259" s="60"/>
       <c r="G259" s="26"/>
       <c r="H259" s="4"/>
       <c r="I259" s="13"/>
@@ -15668,7 +15668,7 @@
       <c r="C260" s="13"/>
       <c r="D260" s="27"/>
       <c r="E260" s="16"/>
-      <c r="F260" s="46"/>
+      <c r="F260" s="60"/>
       <c r="G260" s="26"/>
       <c r="H260" s="4"/>
       <c r="I260" s="13"/>
@@ -15679,7 +15679,7 @@
       <c r="C261" s="13"/>
       <c r="D261" s="27"/>
       <c r="E261" s="16"/>
-      <c r="F261" s="46"/>
+      <c r="F261" s="60"/>
       <c r="G261" s="26"/>
       <c r="H261" s="4"/>
       <c r="I261" s="13"/>
@@ -15690,7 +15690,7 @@
       <c r="C262" s="13"/>
       <c r="D262" s="27"/>
       <c r="E262" s="16"/>
-      <c r="F262" s="46"/>
+      <c r="F262" s="60"/>
       <c r="G262" s="26"/>
       <c r="H262" s="4"/>
       <c r="I262" s="13"/>
@@ -15701,7 +15701,7 @@
       <c r="C263" s="13"/>
       <c r="D263" s="27"/>
       <c r="E263" s="16"/>
-      <c r="F263" s="46"/>
+      <c r="F263" s="60"/>
       <c r="G263" s="26"/>
       <c r="H263" s="4"/>
       <c r="I263" s="13"/>
@@ -15712,7 +15712,7 @@
       <c r="C264" s="13"/>
       <c r="D264" s="27"/>
       <c r="E264" s="16"/>
-      <c r="F264" s="46"/>
+      <c r="F264" s="60"/>
       <c r="G264" s="26"/>
       <c r="H264" s="4"/>
       <c r="I264" s="13"/>
@@ -15723,7 +15723,7 @@
       <c r="C265" s="13"/>
       <c r="D265" s="27"/>
       <c r="E265" s="16"/>
-      <c r="F265" s="46"/>
+      <c r="F265" s="60"/>
       <c r="G265" s="26"/>
       <c r="H265" s="4"/>
       <c r="I265" s="13"/>
@@ -15734,7 +15734,7 @@
       <c r="C266" s="13"/>
       <c r="D266" s="27"/>
       <c r="E266" s="16"/>
-      <c r="F266" s="46"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="26"/>
       <c r="H266" s="4"/>
       <c r="I266" s="13"/>
@@ -15745,7 +15745,7 @@
       <c r="C267" s="13"/>
       <c r="D267" s="27"/>
       <c r="E267" s="16"/>
-      <c r="F267" s="46"/>
+      <c r="F267" s="60"/>
       <c r="G267" s="26"/>
       <c r="H267" s="4"/>
       <c r="I267" s="13"/>
@@ -15756,7 +15756,7 @@
       <c r="C268" s="13"/>
       <c r="D268" s="27"/>
       <c r="E268" s="16"/>
-      <c r="F268" s="46"/>
+      <c r="F268" s="60"/>
       <c r="G268" s="26"/>
       <c r="H268" s="4"/>
       <c r="I268" s="13"/>
@@ -15767,7 +15767,7 @@
       <c r="C269" s="13"/>
       <c r="D269" s="27"/>
       <c r="E269" s="16"/>
-      <c r="F269" s="46"/>
+      <c r="F269" s="60"/>
       <c r="G269" s="26"/>
       <c r="H269" s="4"/>
       <c r="I269" s="13"/>
@@ -15778,7 +15778,7 @@
       <c r="C270" s="13"/>
       <c r="D270" s="27"/>
       <c r="E270" s="16"/>
-      <c r="F270" s="46"/>
+      <c r="F270" s="60"/>
       <c r="G270" s="26"/>
       <c r="H270" s="4"/>
       <c r="I270" s="13"/>
@@ -15789,7 +15789,7 @@
       <c r="C271" s="13"/>
       <c r="D271" s="27"/>
       <c r="E271" s="16"/>
-      <c r="F271" s="46"/>
+      <c r="F271" s="60"/>
       <c r="G271" s="26"/>
       <c r="H271" s="4"/>
       <c r="I271" s="13"/>
@@ -15800,7 +15800,7 @@
       <c r="C272" s="13"/>
       <c r="D272" s="27"/>
       <c r="E272" s="16"/>
-      <c r="F272" s="46"/>
+      <c r="F272" s="60"/>
       <c r="G272" s="26"/>
       <c r="H272" s="4"/>
       <c r="I272" s="13"/>
@@ -15811,7 +15811,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="27"/>
       <c r="E273" s="16"/>
-      <c r="F273" s="46"/>
+      <c r="F273" s="60"/>
       <c r="G273" s="26"/>
       <c r="H273" s="4"/>
       <c r="I273" s="13"/>
@@ -15822,7 +15822,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="27"/>
       <c r="E274" s="16"/>
-      <c r="F274" s="46"/>
+      <c r="F274" s="60"/>
       <c r="G274" s="26"/>
       <c r="H274" s="4"/>
       <c r="I274" s="13"/>
@@ -15833,7 +15833,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="27"/>
       <c r="E275" s="16"/>
-      <c r="F275" s="46"/>
+      <c r="F275" s="60"/>
       <c r="G275" s="26"/>
       <c r="H275" s="4"/>
       <c r="I275" s="13"/>
@@ -15844,7 +15844,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="27"/>
       <c r="E276" s="16"/>
-      <c r="F276" s="46"/>
+      <c r="F276" s="60"/>
       <c r="G276" s="26"/>
       <c r="H276" s="4"/>
       <c r="I276" s="13"/>
@@ -15855,7 +15855,7 @@
       <c r="C277" s="13"/>
       <c r="D277" s="27"/>
       <c r="E277" s="16"/>
-      <c r="F277" s="46"/>
+      <c r="F277" s="60"/>
       <c r="G277" s="26"/>
       <c r="H277" s="4"/>
       <c r="I277" s="13"/>
@@ -15866,7 +15866,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="27"/>
       <c r="E278" s="16"/>
-      <c r="F278" s="46"/>
+      <c r="F278" s="60"/>
       <c r="G278" s="26"/>
       <c r="H278" s="4"/>
       <c r="I278" s="13"/>
@@ -15877,7 +15877,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="27"/>
       <c r="E279" s="16"/>
-      <c r="F279" s="47"/>
+      <c r="F279" s="61"/>
       <c r="G279" s="26"/>
       <c r="H279" s="4"/>
       <c r="I279" s="13"/>
@@ -15888,7 +15888,7 @@
       <c r="C280" s="13"/>
       <c r="D280" s="27"/>
       <c r="E280" s="16"/>
-      <c r="F280" s="38"/>
+      <c r="F280" s="71"/>
       <c r="G280" s="26"/>
       <c r="H280" s="4"/>
       <c r="I280" s="13"/>
@@ -15899,7 +15899,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="27"/>
       <c r="E281" s="16"/>
-      <c r="F281" s="39"/>
+      <c r="F281" s="49"/>
       <c r="G281" s="26"/>
       <c r="H281" s="4"/>
       <c r="I281" s="13"/>
@@ -15910,7 +15910,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="27"/>
       <c r="E282" s="16"/>
-      <c r="F282" s="39"/>
+      <c r="F282" s="49"/>
       <c r="G282" s="26"/>
       <c r="H282" s="4"/>
       <c r="I282" s="13"/>
@@ -15921,7 +15921,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="27"/>
       <c r="E283" s="16"/>
-      <c r="F283" s="39"/>
+      <c r="F283" s="49"/>
       <c r="G283" s="26"/>
       <c r="H283" s="4"/>
       <c r="I283" s="13"/>
@@ -15932,7 +15932,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="27"/>
       <c r="E284" s="16"/>
-      <c r="F284" s="39"/>
+      <c r="F284" s="49"/>
       <c r="G284" s="26"/>
       <c r="H284" s="4"/>
       <c r="I284" s="13"/>
@@ -15943,7 +15943,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="27"/>
       <c r="E285" s="16"/>
-      <c r="F285" s="39"/>
+      <c r="F285" s="49"/>
       <c r="G285" s="26"/>
       <c r="H285" s="4"/>
       <c r="I285" s="13"/>
@@ -15954,7 +15954,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="27"/>
       <c r="E286" s="16"/>
-      <c r="F286" s="39"/>
+      <c r="F286" s="49"/>
       <c r="G286" s="26"/>
       <c r="H286" s="4"/>
       <c r="I286" s="13"/>
@@ -15965,7 +15965,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="27"/>
       <c r="E287" s="16"/>
-      <c r="F287" s="39"/>
+      <c r="F287" s="49"/>
       <c r="G287" s="26"/>
       <c r="H287" s="4"/>
       <c r="I287" s="13"/>
@@ -15976,7 +15976,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="27"/>
       <c r="E288" s="16"/>
-      <c r="F288" s="39"/>
+      <c r="F288" s="49"/>
       <c r="G288" s="26"/>
       <c r="H288" s="4"/>
       <c r="I288" s="13"/>
@@ -15987,7 +15987,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="27"/>
       <c r="E289" s="16"/>
-      <c r="F289" s="39"/>
+      <c r="F289" s="49"/>
       <c r="G289" s="26"/>
       <c r="H289" s="4"/>
       <c r="I289" s="13"/>
@@ -15998,7 +15998,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="27"/>
       <c r="E290" s="16"/>
-      <c r="F290" s="39"/>
+      <c r="F290" s="49"/>
       <c r="G290" s="26"/>
       <c r="H290" s="4"/>
       <c r="I290" s="13"/>
@@ -16009,55 +16009,55 @@
       <c r="C291" s="13"/>
       <c r="D291" s="27"/>
       <c r="E291" s="16"/>
-      <c r="F291" s="39"/>
+      <c r="F291" s="49"/>
       <c r="G291" s="26"/>
       <c r="H291" s="4"/>
       <c r="I291" s="13"/>
     </row>
     <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
-      <c r="B292" s="41"/>
-      <c r="C292" s="41"/>
-      <c r="D292" s="41"/>
-      <c r="E292" s="41"/>
-      <c r="F292" s="41"/>
-      <c r="G292" s="41"/>
-      <c r="H292" s="41"/>
-      <c r="I292" s="41"/>
+      <c r="A292" s="75"/>
+      <c r="B292" s="76"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
+      <c r="E292" s="76"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="76"/>
     </row>
     <row r="293" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A293" s="42" t="s">
+      <c r="A293" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="B293" s="43"/>
-      <c r="C293" s="43"/>
-      <c r="D293" s="43"/>
-      <c r="E293" s="44"/>
-      <c r="F293" s="45"/>
-      <c r="G293" s="42" t="s">
+      <c r="B293" s="73"/>
+      <c r="C293" s="73"/>
+      <c r="D293" s="73"/>
+      <c r="E293" s="74"/>
+      <c r="F293" s="59"/>
+      <c r="G293" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="H293" s="43"/>
-      <c r="I293" s="43"/>
-      <c r="J293" s="43"/>
-      <c r="K293" s="44"/>
+      <c r="H293" s="73"/>
+      <c r="I293" s="73"/>
+      <c r="J293" s="73"/>
+      <c r="K293" s="74"/>
     </row>
     <row r="294" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="48" t="s">
+      <c r="A294" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="B294" s="48"/>
-      <c r="C294" s="48"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="48"/>
-      <c r="F294" s="46"/>
-      <c r="G294" s="48" t="s">
+      <c r="B294" s="65"/>
+      <c r="C294" s="65"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="60"/>
+      <c r="G294" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="H294" s="48"/>
-      <c r="I294" s="48"/>
-      <c r="J294" s="48"/>
-      <c r="K294" s="48"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
     </row>
     <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
@@ -16071,7 +16071,7 @@
       <c r="E295" s="18">
         <v>32</v>
       </c>
-      <c r="F295" s="46"/>
+      <c r="F295" s="60"/>
       <c r="G295" s="9" t="s">
         <v>2</v>
       </c>
@@ -16083,17 +16083,17 @@
       <c r="K295" s="18"/>
     </row>
     <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="49"/>
-      <c r="B296" s="49"/>
-      <c r="C296" s="49"/>
-      <c r="D296" s="49"/>
-      <c r="E296" s="50"/>
-      <c r="F296" s="46"/>
-      <c r="G296" s="49"/>
-      <c r="H296" s="49"/>
-      <c r="I296" s="49"/>
-      <c r="J296" s="49"/>
-      <c r="K296" s="50"/>
+      <c r="A296" s="44"/>
+      <c r="B296" s="44"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="44"/>
+      <c r="E296" s="66"/>
+      <c r="F296" s="60"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="44"/>
+      <c r="I296" s="44"/>
+      <c r="J296" s="44"/>
+      <c r="K296" s="66"/>
     </row>
     <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
@@ -16103,11 +16103,11 @@
         <v>5</v>
       </c>
       <c r="C297" s="13"/>
-      <c r="D297" s="51" t="s">
+      <c r="D297" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E297" s="52"/>
-      <c r="F297" s="46"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="60"/>
       <c r="G297" s="9" t="s">
         <v>51</v>
       </c>
@@ -16122,7 +16122,7 @@
       <c r="C298" s="13"/>
       <c r="D298" s="27"/>
       <c r="E298" s="16"/>
-      <c r="F298" s="46"/>
+      <c r="F298" s="60"/>
       <c r="G298" s="26"/>
       <c r="H298" s="4"/>
       <c r="I298" s="13"/>
@@ -16133,7 +16133,7 @@
       <c r="C299" s="13"/>
       <c r="D299" s="27"/>
       <c r="E299" s="16"/>
-      <c r="F299" s="46"/>
+      <c r="F299" s="60"/>
       <c r="G299" s="26"/>
       <c r="H299" s="4"/>
       <c r="I299" s="13"/>
@@ -16144,7 +16144,7 @@
       <c r="C300" s="13"/>
       <c r="D300" s="27"/>
       <c r="E300" s="16"/>
-      <c r="F300" s="46"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="26"/>
       <c r="H300" s="4"/>
       <c r="I300" s="13"/>
@@ -16155,7 +16155,7 @@
       <c r="C301" s="13"/>
       <c r="D301" s="27"/>
       <c r="E301" s="16"/>
-      <c r="F301" s="46"/>
+      <c r="F301" s="60"/>
       <c r="G301" s="26"/>
       <c r="H301" s="4"/>
       <c r="I301" s="13"/>
@@ -16166,7 +16166,7 @@
       <c r="C302" s="13"/>
       <c r="D302" s="27"/>
       <c r="E302" s="16"/>
-      <c r="F302" s="46"/>
+      <c r="F302" s="60"/>
       <c r="G302" s="26"/>
       <c r="H302" s="4"/>
       <c r="I302" s="13"/>
@@ -16177,7 +16177,7 @@
       <c r="C303" s="13"/>
       <c r="D303" s="27"/>
       <c r="E303" s="16"/>
-      <c r="F303" s="46"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="26"/>
       <c r="H303" s="4"/>
       <c r="I303" s="13"/>
@@ -16188,7 +16188,7 @@
       <c r="C304" s="13"/>
       <c r="D304" s="27"/>
       <c r="E304" s="16"/>
-      <c r="F304" s="46"/>
+      <c r="F304" s="60"/>
       <c r="G304" s="26"/>
       <c r="H304" s="4"/>
       <c r="I304" s="13"/>
@@ -16199,7 +16199,7 @@
       <c r="C305" s="13"/>
       <c r="D305" s="27"/>
       <c r="E305" s="16"/>
-      <c r="F305" s="46"/>
+      <c r="F305" s="60"/>
       <c r="G305" s="26"/>
       <c r="H305" s="4"/>
       <c r="I305" s="13"/>
@@ -16210,7 +16210,7 @@
       <c r="C306" s="13"/>
       <c r="D306" s="27"/>
       <c r="E306" s="16"/>
-      <c r="F306" s="46"/>
+      <c r="F306" s="60"/>
       <c r="G306" s="26"/>
       <c r="H306" s="4"/>
       <c r="I306" s="13"/>
@@ -16221,7 +16221,7 @@
       <c r="C307" s="13"/>
       <c r="D307" s="27"/>
       <c r="E307" s="16"/>
-      <c r="F307" s="46"/>
+      <c r="F307" s="60"/>
       <c r="G307" s="26"/>
       <c r="H307" s="4"/>
       <c r="I307" s="13"/>
@@ -16232,7 +16232,7 @@
       <c r="C308" s="13"/>
       <c r="D308" s="27"/>
       <c r="E308" s="16"/>
-      <c r="F308" s="46"/>
+      <c r="F308" s="60"/>
       <c r="G308" s="26"/>
       <c r="H308" s="4"/>
       <c r="I308" s="13"/>
@@ -16243,7 +16243,7 @@
       <c r="C309" s="13"/>
       <c r="D309" s="27"/>
       <c r="E309" s="16"/>
-      <c r="F309" s="46"/>
+      <c r="F309" s="60"/>
       <c r="G309" s="26"/>
       <c r="H309" s="4"/>
       <c r="I309" s="13"/>
@@ -16254,7 +16254,7 @@
       <c r="C310" s="13"/>
       <c r="D310" s="27"/>
       <c r="E310" s="16"/>
-      <c r="F310" s="46"/>
+      <c r="F310" s="60"/>
       <c r="G310" s="26"/>
       <c r="H310" s="4"/>
       <c r="I310" s="13"/>
@@ -16265,7 +16265,7 @@
       <c r="C311" s="13"/>
       <c r="D311" s="27"/>
       <c r="E311" s="16"/>
-      <c r="F311" s="46"/>
+      <c r="F311" s="60"/>
       <c r="G311" s="26"/>
       <c r="H311" s="4"/>
       <c r="I311" s="13"/>
@@ -16276,7 +16276,7 @@
       <c r="C312" s="13"/>
       <c r="D312" s="27"/>
       <c r="E312" s="16"/>
-      <c r="F312" s="46"/>
+      <c r="F312" s="60"/>
       <c r="G312" s="26"/>
       <c r="H312" s="4"/>
       <c r="I312" s="13"/>
@@ -16287,7 +16287,7 @@
       <c r="C313" s="13"/>
       <c r="D313" s="27"/>
       <c r="E313" s="16"/>
-      <c r="F313" s="46"/>
+      <c r="F313" s="60"/>
       <c r="G313" s="26"/>
       <c r="H313" s="4"/>
       <c r="I313" s="13"/>
@@ -16298,7 +16298,7 @@
       <c r="C314" s="13"/>
       <c r="D314" s="27"/>
       <c r="E314" s="16"/>
-      <c r="F314" s="46"/>
+      <c r="F314" s="60"/>
       <c r="G314" s="26"/>
       <c r="H314" s="4"/>
       <c r="I314" s="13"/>
@@ -16309,7 +16309,7 @@
       <c r="C315" s="13"/>
       <c r="D315" s="27"/>
       <c r="E315" s="16"/>
-      <c r="F315" s="46"/>
+      <c r="F315" s="60"/>
       <c r="G315" s="26"/>
       <c r="H315" s="4"/>
       <c r="I315" s="13"/>
@@ -16320,7 +16320,7 @@
       <c r="C316" s="13"/>
       <c r="D316" s="27"/>
       <c r="E316" s="16"/>
-      <c r="F316" s="46"/>
+      <c r="F316" s="60"/>
       <c r="G316" s="26"/>
       <c r="H316" s="4"/>
       <c r="I316" s="13"/>
@@ -16331,7 +16331,7 @@
       <c r="C317" s="13"/>
       <c r="D317" s="27"/>
       <c r="E317" s="16"/>
-      <c r="F317" s="46"/>
+      <c r="F317" s="60"/>
       <c r="G317" s="26"/>
       <c r="H317" s="4"/>
       <c r="I317" s="13"/>
@@ -16342,7 +16342,7 @@
       <c r="C318" s="13"/>
       <c r="D318" s="27"/>
       <c r="E318" s="16"/>
-      <c r="F318" s="46"/>
+      <c r="F318" s="60"/>
       <c r="G318" s="26"/>
       <c r="H318" s="4"/>
       <c r="I318" s="13"/>
@@ -16353,7 +16353,7 @@
       <c r="C319" s="13"/>
       <c r="D319" s="27"/>
       <c r="E319" s="16"/>
-      <c r="F319" s="46"/>
+      <c r="F319" s="60"/>
       <c r="G319" s="26"/>
       <c r="H319" s="4"/>
       <c r="I319" s="13"/>
@@ -16364,7 +16364,7 @@
       <c r="C320" s="13"/>
       <c r="D320" s="27"/>
       <c r="E320" s="16"/>
-      <c r="F320" s="46"/>
+      <c r="F320" s="60"/>
       <c r="G320" s="26"/>
       <c r="H320" s="4"/>
       <c r="I320" s="13"/>
@@ -16375,7 +16375,7 @@
       <c r="C321" s="13"/>
       <c r="D321" s="27"/>
       <c r="E321" s="16"/>
-      <c r="F321" s="46"/>
+      <c r="F321" s="60"/>
       <c r="G321" s="26"/>
       <c r="H321" s="4"/>
       <c r="I321" s="13"/>
@@ -16386,7 +16386,7 @@
       <c r="C322" s="13"/>
       <c r="D322" s="27"/>
       <c r="E322" s="16"/>
-      <c r="F322" s="46"/>
+      <c r="F322" s="60"/>
       <c r="G322" s="26"/>
       <c r="H322" s="4"/>
       <c r="I322" s="13"/>
@@ -16397,7 +16397,7 @@
       <c r="C323" s="13"/>
       <c r="D323" s="27"/>
       <c r="E323" s="16"/>
-      <c r="F323" s="46"/>
+      <c r="F323" s="60"/>
       <c r="G323" s="26"/>
       <c r="H323" s="4"/>
       <c r="I323" s="13"/>
@@ -16408,7 +16408,7 @@
       <c r="C324" s="13"/>
       <c r="D324" s="27"/>
       <c r="E324" s="16"/>
-      <c r="F324" s="47"/>
+      <c r="F324" s="61"/>
       <c r="G324" s="26"/>
       <c r="H324" s="4"/>
       <c r="I324" s="13"/>
@@ -16419,7 +16419,7 @@
       <c r="C325" s="13"/>
       <c r="D325" s="27"/>
       <c r="E325" s="16"/>
-      <c r="F325" s="38"/>
+      <c r="F325" s="71"/>
       <c r="G325" s="26"/>
       <c r="H325" s="4"/>
       <c r="I325" s="13"/>
@@ -16430,7 +16430,7 @@
       <c r="C326" s="13"/>
       <c r="D326" s="27"/>
       <c r="E326" s="16"/>
-      <c r="F326" s="39"/>
+      <c r="F326" s="49"/>
       <c r="G326" s="26"/>
       <c r="H326" s="4"/>
       <c r="I326" s="13"/>
@@ -16441,7 +16441,7 @@
       <c r="C327" s="13"/>
       <c r="D327" s="27"/>
       <c r="E327" s="16"/>
-      <c r="F327" s="39"/>
+      <c r="F327" s="49"/>
       <c r="G327" s="26"/>
       <c r="H327" s="4"/>
       <c r="I327" s="13"/>
@@ -16452,7 +16452,7 @@
       <c r="C328" s="13"/>
       <c r="D328" s="27"/>
       <c r="E328" s="16"/>
-      <c r="F328" s="39"/>
+      <c r="F328" s="49"/>
       <c r="G328" s="26"/>
       <c r="H328" s="4"/>
       <c r="I328" s="13"/>
@@ -16463,7 +16463,7 @@
       <c r="C329" s="13"/>
       <c r="D329" s="27"/>
       <c r="E329" s="16"/>
-      <c r="F329" s="39"/>
+      <c r="F329" s="49"/>
       <c r="G329" s="26"/>
       <c r="H329" s="4"/>
       <c r="I329" s="13"/>
@@ -16474,7 +16474,7 @@
       <c r="C330" s="13"/>
       <c r="D330" s="27"/>
       <c r="E330" s="16"/>
-      <c r="F330" s="39"/>
+      <c r="F330" s="49"/>
       <c r="G330" s="26"/>
       <c r="H330" s="4"/>
       <c r="I330" s="13"/>
@@ -16485,7 +16485,7 @@
       <c r="C331" s="13"/>
       <c r="D331" s="27"/>
       <c r="E331" s="16"/>
-      <c r="F331" s="39"/>
+      <c r="F331" s="49"/>
       <c r="G331" s="26"/>
       <c r="H331" s="4"/>
       <c r="I331" s="13"/>
@@ -16496,7 +16496,7 @@
       <c r="C332" s="13"/>
       <c r="D332" s="27"/>
       <c r="E332" s="16"/>
-      <c r="F332" s="39"/>
+      <c r="F332" s="49"/>
       <c r="G332" s="26"/>
       <c r="H332" s="4"/>
       <c r="I332" s="13"/>
@@ -16507,7 +16507,7 @@
       <c r="C333" s="13"/>
       <c r="D333" s="27"/>
       <c r="E333" s="16"/>
-      <c r="F333" s="39"/>
+      <c r="F333" s="49"/>
       <c r="G333" s="26"/>
       <c r="H333" s="4"/>
       <c r="I333" s="13"/>
@@ -16518,7 +16518,7 @@
       <c r="C334" s="13"/>
       <c r="D334" s="27"/>
       <c r="E334" s="16"/>
-      <c r="F334" s="39"/>
+      <c r="F334" s="49"/>
       <c r="G334" s="26"/>
       <c r="H334" s="4"/>
       <c r="I334" s="13"/>
@@ -16529,7 +16529,7 @@
       <c r="C335" s="13"/>
       <c r="D335" s="27"/>
       <c r="E335" s="16"/>
-      <c r="F335" s="39"/>
+      <c r="F335" s="49"/>
       <c r="G335" s="26"/>
       <c r="H335" s="4"/>
       <c r="I335" s="13"/>
@@ -16540,22 +16540,89 @@
       <c r="C336" s="13"/>
       <c r="D336" s="27"/>
       <c r="E336" s="16"/>
-      <c r="F336" s="39"/>
+      <c r="F336" s="49"/>
       <c r="G336" s="26"/>
       <c r="H336" s="4"/>
       <c r="I336" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="F5:F26"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N35:T35"/>
+    <mergeCell ref="F325:F336"/>
+    <mergeCell ref="F280:F291"/>
+    <mergeCell ref="A292:I292"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="F293:F324"/>
+    <mergeCell ref="G293:K293"/>
+    <mergeCell ref="A294:E294"/>
+    <mergeCell ref="G294:K294"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="G296:K296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="F235:F246"/>
+    <mergeCell ref="A247:I247"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="F248:F279"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="G249:K249"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="G251:K251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="F203:F234"/>
+    <mergeCell ref="G203:K203"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="F159:F190"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="F101:F112"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="F114:F145"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="F69:F100"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="N64:T64"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="N65:T65"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="N44:T44"/>
+    <mergeCell ref="N45:T45"/>
+    <mergeCell ref="N58:T58"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="N63:T63"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="N53:T53"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="N56:T56"/>
+    <mergeCell ref="N57:T57"/>
     <mergeCell ref="N36:T36"/>
     <mergeCell ref="N37:T37"/>
     <mergeCell ref="N38:T38"/>
@@ -16580,82 +16647,15 @@
     <mergeCell ref="N41:T41"/>
     <mergeCell ref="N42:T42"/>
     <mergeCell ref="N43:T43"/>
-    <mergeCell ref="N44:T44"/>
-    <mergeCell ref="N45:T45"/>
-    <mergeCell ref="N58:T58"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="N63:T63"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="N56:T56"/>
-    <mergeCell ref="N57:T57"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="F69:F100"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="N64:T64"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="N65:T65"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="A68:N68"/>
-    <mergeCell ref="F101:F112"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="F114:F145"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="F159:F190"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="F203:F234"/>
-    <mergeCell ref="G203:K203"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F235:F246"/>
-    <mergeCell ref="A247:I247"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="F248:F279"/>
-    <mergeCell ref="G248:K248"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="G249:K249"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="G251:K251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="F325:F336"/>
-    <mergeCell ref="F280:F291"/>
-    <mergeCell ref="A292:I292"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="F293:F324"/>
-    <mergeCell ref="G293:K293"/>
-    <mergeCell ref="A294:E294"/>
-    <mergeCell ref="G294:K294"/>
-    <mergeCell ref="A296:E296"/>
-    <mergeCell ref="G296:K296"/>
-    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="F5:F26"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N35:T35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16690,36 +16690,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39" x14ac:dyDescent="0.6">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
@@ -16736,12 +16736,12 @@
         <v>30</v>
       </c>
       <c r="F3" s="15"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="77"/>
@@ -16771,7 +16771,7 @@
       <c r="E5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="71"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
@@ -16779,10 +16779,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="73"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="8" t="s">
         <v>9</v>
       </c>
@@ -16801,7 +16801,7 @@
       <c r="E6" s="18">
         <v>37</v>
       </c>
-      <c r="F6" s="71"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="21" t="s">
         <v>256</v>
       </c>
@@ -16827,7 +16827,7 @@
       <c r="E7" s="18">
         <v>14</v>
       </c>
-      <c r="F7" s="71"/>
+      <c r="F7" s="41"/>
       <c r="G7" s="21" t="s">
         <v>12</v>
       </c>
@@ -16853,7 +16853,7 @@
       <c r="E8" s="18">
         <v>4</v>
       </c>
-      <c r="F8" s="71"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="21" t="s">
         <v>23</v>
       </c>
@@ -16879,7 +16879,7 @@
       <c r="E9" s="18">
         <v>1</v>
       </c>
-      <c r="F9" s="71"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="21" t="s">
         <v>259</v>
       </c>
@@ -16901,7 +16901,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="22"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="71"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="21" t="s">
         <v>260</v>
       </c>
@@ -16923,7 +16923,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="22"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="71"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="21" t="s">
         <v>39</v>
       </c>
@@ -16945,7 +16945,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="22"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="71"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="21" t="s">
         <v>263</v>
       </c>
@@ -16967,7 +16967,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="22"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="71"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="21" t="s">
         <v>265</v>
       </c>
@@ -16995,7 +16995,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="22"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="71"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="21" t="s">
         <v>44</v>
       </c>
@@ -17021,7 +17021,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="22"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="71"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="21" t="s">
         <v>45</v>
       </c>
@@ -17043,7 +17043,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="22"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="71"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="21" t="s">
         <v>267</v>
       </c>
@@ -17061,7 +17061,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="22"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="71"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="21" t="s">
         <v>268</v>
       </c>
@@ -17079,7 +17079,7 @@
       <c r="C18" s="3"/>
       <c r="D18" s="22"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="71"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="21" t="s">
         <v>269</v>
       </c>
@@ -17097,7 +17097,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="22"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="71"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="21" t="s">
         <v>270</v>
       </c>
@@ -17115,7 +17115,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="22"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="71"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="21" t="s">
         <v>42</v>
       </c>
@@ -17133,7 +17133,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="22"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="71"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="21" t="s">
         <v>38</v>
       </c>
@@ -17151,7 +17151,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="22"/>
       <c r="E22" s="18"/>
-      <c r="F22" s="71"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="21" t="s">
         <v>40</v>
       </c>
@@ -17169,7 +17169,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="22"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="71"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="21" t="s">
         <v>41</v>
       </c>
@@ -17187,7 +17187,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="22"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="71"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="21" t="s">
         <v>46</v>
       </c>
@@ -17205,7 +17205,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="22"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="71"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3"/>
@@ -17214,54 +17214,54 @@
       <c r="L25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="39" x14ac:dyDescent="0.6">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="53" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
@@ -17271,17 +17271,17 @@
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64" t="s">
+      <c r="F29" s="50"/>
+      <c r="G29" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
     </row>
     <row r="30" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
@@ -17295,7 +17295,7 @@
       <c r="E30" s="18">
         <v>11</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="19" t="s">
         <v>2</v>
       </c>
@@ -17307,9 +17307,9 @@
       <c r="K30" s="4">
         <v>11</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
     </row>
     <row r="31" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
@@ -17317,15 +17317,15 @@
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="63"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="15"/>
       <c r="K31" s="15"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
     </row>
     <row r="32" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
@@ -17336,28 +17336,28 @@
       </c>
       <c r="C32" s="10"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="63"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="19" t="s">
         <v>51</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="67" t="s">
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="O32" s="67"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="67"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="53"/>
+      <c r="Q32" s="53"/>
+      <c r="R32" s="53"/>
+      <c r="S32" s="53"/>
+      <c r="T32" s="53"/>
     </row>
     <row r="33" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
@@ -17368,24 +17368,24 @@
       </c>
       <c r="C33" s="3"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="63"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="21" t="s">
         <v>55</v>
       </c>
       <c r="H33" s="4">
         <v>54</v>
       </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="70"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="70"/>
-      <c r="T33" s="70"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
     </row>
     <row r="34" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -17396,7 +17396,7 @@
       </c>
       <c r="C34" s="3"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="63"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="21" t="s">
         <v>57</v>
       </c>
@@ -17415,15 +17415,15 @@
       <c r="M34" s="25">
         <v>6</v>
       </c>
-      <c r="N34" s="74" t="s">
+      <c r="N34" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="76"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="47"/>
       <c r="U34" s="29"/>
     </row>
     <row r="35" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17435,7 +17435,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="63"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="21" t="s">
         <v>62</v>
       </c>
@@ -17446,13 +17446,13 @@
       <c r="K35" s="17"/>
       <c r="L35" s="22"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-      <c r="S35" s="59"/>
-      <c r="T35" s="59"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
       <c r="U35" s="29"/>
     </row>
     <row r="36" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="C36" s="3"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="63"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="21" t="s">
         <v>64</v>
       </c>
@@ -17475,13 +17475,13 @@
       <c r="K36" s="17"/>
       <c r="L36" s="22"/>
       <c r="M36" s="16"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="59"/>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="59"/>
-      <c r="S36" s="59"/>
-      <c r="T36" s="59"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
       <c r="U36" s="29"/>
     </row>
     <row r="37" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="C37" s="3"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="63"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="21" t="s">
         <v>65</v>
       </c>
@@ -17504,13 +17504,13 @@
       <c r="K37" s="17"/>
       <c r="L37" s="22"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
       <c r="U37" s="29"/>
     </row>
     <row r="38" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17522,7 +17522,7 @@
       </c>
       <c r="C38" s="3"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="63"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="21" t="s">
         <v>66</v>
       </c>
@@ -17537,13 +17537,13 @@
       </c>
       <c r="L38" s="22"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
       <c r="U38" s="29"/>
     </row>
     <row r="39" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17555,7 +17555,7 @@
       </c>
       <c r="C39" s="3"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="63"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="21" t="s">
         <v>69</v>
       </c>
@@ -17570,13 +17570,13 @@
       </c>
       <c r="L39" s="22"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
       <c r="U39" s="29"/>
     </row>
     <row r="40" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17588,7 +17588,7 @@
       </c>
       <c r="C40" s="3"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="63"/>
+      <c r="F40" s="50"/>
       <c r="G40" s="21" t="s">
         <v>72</v>
       </c>
@@ -17603,13 +17603,13 @@
       </c>
       <c r="L40" s="22"/>
       <c r="M40" s="16"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
       <c r="U40" s="29"/>
     </row>
     <row r="41" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="C41" s="3"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="63"/>
+      <c r="F41" s="50"/>
       <c r="G41" s="21" t="s">
         <v>75</v>
       </c>
@@ -17632,13 +17632,13 @@
       <c r="K41" s="17"/>
       <c r="L41" s="22"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
       <c r="U41" s="29"/>
     </row>
     <row r="42" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17650,7 +17650,7 @@
       </c>
       <c r="C42" s="3"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="63"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="21" t="s">
         <v>77</v>
       </c>
@@ -17661,13 +17661,13 @@
       <c r="K42" s="17"/>
       <c r="L42" s="22"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
       <c r="U42" s="29"/>
     </row>
     <row r="43" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17679,7 +17679,7 @@
       </c>
       <c r="C43" s="3"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="63"/>
+      <c r="F43" s="50"/>
       <c r="G43" s="21" t="s">
         <v>79</v>
       </c>
@@ -17694,13 +17694,13 @@
       </c>
       <c r="L43" s="22"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
       <c r="U43" s="29"/>
     </row>
     <row r="44" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17712,7 +17712,7 @@
       </c>
       <c r="C44" s="3"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="63"/>
+      <c r="F44" s="50"/>
       <c r="G44" s="21" t="s">
         <v>82</v>
       </c>
@@ -17723,13 +17723,13 @@
       <c r="K44" s="17"/>
       <c r="L44" s="22"/>
       <c r="M44" s="16"/>
-      <c r="N44" s="59"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="59"/>
-      <c r="Q44" s="59"/>
-      <c r="R44" s="59"/>
-      <c r="S44" s="59"/>
-      <c r="T44" s="59"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
       <c r="U44" s="29"/>
     </row>
     <row r="45" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17741,7 +17741,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="63"/>
+      <c r="F45" s="50"/>
       <c r="G45" s="21" t="s">
         <v>84</v>
       </c>
@@ -17752,13 +17752,13 @@
       <c r="K45" s="17"/>
       <c r="L45" s="22"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="59"/>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
       <c r="U45" s="29"/>
     </row>
     <row r="46" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17770,7 +17770,7 @@
       </c>
       <c r="C46" s="3"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="63"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="21" t="s">
         <v>85</v>
       </c>
@@ -17785,13 +17785,13 @@
       </c>
       <c r="L46" s="22"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
       <c r="U46" s="29"/>
     </row>
     <row r="47" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17803,7 +17803,7 @@
       </c>
       <c r="C47" s="3"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="63"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="21" t="s">
         <v>87</v>
       </c>
@@ -17814,13 +17814,13 @@
       <c r="K47" s="17"/>
       <c r="L47" s="22"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="59"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="59"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="48"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
       <c r="U47" s="29"/>
     </row>
     <row r="48" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17832,7 +17832,7 @@
       </c>
       <c r="C48" s="3"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="63"/>
+      <c r="F48" s="50"/>
       <c r="G48" s="21" t="s">
         <v>89</v>
       </c>
@@ -17847,13 +17847,13 @@
       </c>
       <c r="L48" s="22"/>
       <c r="M48" s="16"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
       <c r="U48" s="29"/>
     </row>
     <row r="49" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="63"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="21" t="s">
         <v>92</v>
       </c>
@@ -17876,13 +17876,13 @@
       <c r="K49" s="17"/>
       <c r="L49" s="22"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
+      <c r="N49" s="48"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="48"/>
       <c r="U49" s="29"/>
     </row>
     <row r="50" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17894,7 +17894,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="63"/>
+      <c r="F50" s="50"/>
       <c r="G50" s="21" t="s">
         <v>94</v>
       </c>
@@ -17905,13 +17905,13 @@
       <c r="K50" s="17"/>
       <c r="L50" s="22"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
+      <c r="N50" s="48"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
       <c r="U50" s="29"/>
     </row>
     <row r="51" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17923,7 +17923,7 @@
       </c>
       <c r="C51" s="3"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="63"/>
+      <c r="F51" s="50"/>
       <c r="G51" s="21" t="s">
         <v>96</v>
       </c>
@@ -17934,13 +17934,13 @@
       <c r="K51" s="17"/>
       <c r="L51" s="22"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="59"/>
-      <c r="R51" s="59"/>
-      <c r="S51" s="59"/>
-      <c r="T51" s="59"/>
+      <c r="N51" s="48"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="48"/>
       <c r="U51" s="29"/>
     </row>
     <row r="52" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17953,7 +17953,7 @@
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="63"/>
+      <c r="F52" s="50"/>
       <c r="G52" s="21" t="s">
         <v>98</v>
       </c>
@@ -17964,13 +17964,13 @@
       <c r="K52" s="17"/>
       <c r="L52" s="22"/>
       <c r="M52" s="16"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="59"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="48"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="48"/>
       <c r="U52" s="29"/>
     </row>
     <row r="53" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -17981,7 +17981,7 @@
         <v>12</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="F53" s="63"/>
+      <c r="F53" s="50"/>
       <c r="G53" s="21" t="s">
         <v>99</v>
       </c>
@@ -17992,20 +17992,20 @@
       <c r="K53" s="17"/>
       <c r="L53" s="22"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="59"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48"/>
       <c r="U53" s="29"/>
     </row>
     <row r="54" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
       <c r="B54" s="7"/>
       <c r="C54" s="3"/>
-      <c r="F54" s="63"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="21" t="s">
         <v>100</v>
       </c>
@@ -18016,20 +18016,20 @@
       <c r="K54" s="17"/>
       <c r="L54" s="22"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="59"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
       <c r="U54" s="29"/>
     </row>
     <row r="55" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
       <c r="B55" s="7"/>
       <c r="C55" s="3"/>
-      <c r="F55" s="63"/>
+      <c r="F55" s="50"/>
       <c r="G55" s="21" t="s">
         <v>101</v>
       </c>
@@ -18040,20 +18040,20 @@
       <c r="K55" s="17"/>
       <c r="L55" s="22"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="59"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="59"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="48"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="48"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="48"/>
       <c r="U55" s="29"/>
     </row>
     <row r="56" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
       <c r="B56" s="7"/>
       <c r="C56" s="3"/>
-      <c r="F56" s="63"/>
+      <c r="F56" s="50"/>
       <c r="G56" s="21" t="s">
         <v>102</v>
       </c>
@@ -18064,20 +18064,20 @@
       <c r="K56" s="17"/>
       <c r="L56" s="22"/>
       <c r="M56" s="16"/>
-      <c r="N56" s="59"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="59"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="59"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="48"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="48"/>
       <c r="U56" s="29"/>
     </row>
     <row r="57" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
       <c r="B57" s="7"/>
       <c r="C57" s="3"/>
-      <c r="F57" s="63"/>
+      <c r="F57" s="50"/>
       <c r="G57" s="21" t="s">
         <v>104</v>
       </c>
@@ -18092,20 +18092,20 @@
       </c>
       <c r="L57" s="23"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="59"/>
-      <c r="O57" s="59"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="59"/>
-      <c r="R57" s="59"/>
-      <c r="S57" s="59"/>
-      <c r="T57" s="59"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="48"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="48"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="48"/>
       <c r="U57" s="29"/>
     </row>
     <row r="58" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
       <c r="B58" s="7"/>
       <c r="C58" s="3"/>
-      <c r="F58" s="63"/>
+      <c r="F58" s="50"/>
       <c r="G58" s="21" t="s">
         <v>106</v>
       </c>
@@ -18120,20 +18120,20 @@
       </c>
       <c r="L58" s="23"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="59"/>
-      <c r="T58" s="59"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
       <c r="U58" s="29"/>
     </row>
     <row r="59" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
       <c r="B59" s="7"/>
       <c r="C59" s="3"/>
-      <c r="F59" s="63"/>
+      <c r="F59" s="50"/>
       <c r="G59" s="21" t="s">
         <v>107</v>
       </c>
@@ -18148,20 +18148,20 @@
       </c>
       <c r="L59" s="22"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
+      <c r="N59" s="48"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="48"/>
+      <c r="Q59" s="48"/>
+      <c r="R59" s="48"/>
+      <c r="S59" s="48"/>
+      <c r="T59" s="48"/>
       <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
-      <c r="F60" s="63"/>
+      <c r="F60" s="50"/>
       <c r="G60" s="21" t="s">
         <v>109</v>
       </c>
@@ -18172,20 +18172,20 @@
       <c r="K60" s="17"/>
       <c r="L60" s="22"/>
       <c r="M60" s="16"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
+      <c r="N60" s="48"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="48"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="48"/>
+      <c r="T60" s="48"/>
       <c r="U60" s="29"/>
     </row>
     <row r="61" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
-      <c r="F61" s="63"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="21" t="s">
         <v>111</v>
       </c>
@@ -18196,20 +18196,20 @@
       <c r="K61" s="17"/>
       <c r="L61" s="22"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
+      <c r="N61" s="48"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="48"/>
+      <c r="Q61" s="48"/>
+      <c r="R61" s="48"/>
+      <c r="S61" s="48"/>
+      <c r="T61" s="48"/>
       <c r="U61" s="29"/>
     </row>
     <row r="62" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="24"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
-      <c r="F62" s="63"/>
+      <c r="F62" s="50"/>
       <c r="G62" s="21" t="s">
         <v>112</v>
       </c>
@@ -18220,20 +18220,20 @@
       <c r="K62" s="17"/>
       <c r="L62" s="22"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
+      <c r="S62" s="48"/>
+      <c r="T62" s="48"/>
       <c r="U62" s="29"/>
     </row>
     <row r="63" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="24"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5"/>
-      <c r="F63" s="63"/>
+      <c r="F63" s="50"/>
       <c r="G63" s="21" t="s">
         <v>113</v>
       </c>
@@ -18244,20 +18244,20 @@
       <c r="K63" s="17"/>
       <c r="L63" s="22"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="48"/>
+      <c r="Q63" s="48"/>
+      <c r="R63" s="48"/>
+      <c r="S63" s="48"/>
+      <c r="T63" s="48"/>
       <c r="U63" s="29"/>
     </row>
     <row r="64" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="22"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3"/>
-      <c r="F64" s="63"/>
+      <c r="F64" s="50"/>
       <c r="G64" s="21" t="s">
         <v>114</v>
       </c>
@@ -18268,24 +18268,24 @@
       <c r="K64" s="17"/>
       <c r="L64" s="22"/>
       <c r="M64" s="16"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
+      <c r="N64" s="48"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="48"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="48"/>
+      <c r="T64" s="48"/>
       <c r="U64" s="29"/>
     </row>
     <row r="65" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="63"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="50"/>
       <c r="G65" s="21" t="s">
         <v>116</v>
       </c>
@@ -18296,22 +18296,22 @@
       <c r="K65" s="17"/>
       <c r="L65" s="22"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="48"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="48"/>
+      <c r="T65" s="48"/>
       <c r="U65" s="29"/>
     </row>
     <row r="66" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="63"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="50"/>
       <c r="G66" s="21" t="s">
         <v>117</v>
       </c>
@@ -18322,13 +18322,13 @@
       <c r="K66" s="17"/>
       <c r="L66" s="22"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
+      <c r="N66" s="48"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="48"/>
+      <c r="Q66" s="48"/>
+      <c r="R66" s="48"/>
+      <c r="S66" s="48"/>
+      <c r="T66" s="48"/>
       <c r="U66" s="29"/>
     </row>
     <row r="67" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.6">
@@ -18352,64 +18352,64 @@
       </c>
       <c r="L67" s="22"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
       <c r="U67" s="29"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
+      <c r="A68" s="49"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
     </row>
     <row r="69" spans="1:21" ht="39" x14ac:dyDescent="0.6">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="56" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="58"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="58"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:21" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="48" t="s">
+      <c r="A70" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="48" t="s">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
       <c r="L70" s="1"/>
     </row>
     <row r="71" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18424,7 +18424,7 @@
       <c r="E71" s="18">
         <v>45</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="60"/>
       <c r="G71" s="9" t="s">
         <v>2</v>
       </c>
@@ -18439,17 +18439,17 @@
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="49"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="50"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="66"/>
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18460,11 +18460,11 @@
         <v>5</v>
       </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="46"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="60"/>
       <c r="G73" s="9" t="s">
         <v>51</v>
       </c>
@@ -18484,7 +18484,7 @@
       <c r="C74" s="13"/>
       <c r="D74" s="27"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="60"/>
       <c r="G74" s="26" t="s">
         <v>124</v>
       </c>
@@ -18504,7 +18504,7 @@
       <c r="C75" s="13"/>
       <c r="D75" s="27"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="60"/>
       <c r="G75" s="26" t="s">
         <v>126</v>
       </c>
@@ -18524,7 +18524,7 @@
       <c r="C76" s="13"/>
       <c r="D76" s="27"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="60"/>
       <c r="G76" s="26" t="s">
         <v>128</v>
       </c>
@@ -18548,7 +18548,7 @@
       <c r="E77" s="16">
         <v>2</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="60"/>
       <c r="G77" s="26" t="s">
         <v>131</v>
       </c>
@@ -18568,7 +18568,7 @@
       <c r="C78" s="13"/>
       <c r="D78" s="27"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="60"/>
       <c r="G78" s="26" t="s">
         <v>133</v>
       </c>
@@ -18588,7 +18588,7 @@
       <c r="C79" s="13"/>
       <c r="D79" s="27"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="60"/>
       <c r="G79" s="26" t="s">
         <v>135</v>
       </c>
@@ -18608,7 +18608,7 @@
       <c r="C80" s="13"/>
       <c r="D80" s="27"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="60"/>
       <c r="G80" s="26" t="s">
         <v>137</v>
       </c>
@@ -18628,7 +18628,7 @@
       <c r="C81" s="13"/>
       <c r="D81" s="27"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="60"/>
       <c r="G81" s="26" t="s">
         <v>139</v>
       </c>
@@ -18648,7 +18648,7 @@
       <c r="C82" s="13"/>
       <c r="D82" s="27"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="60"/>
       <c r="G82" s="26" t="s">
         <v>141</v>
       </c>
@@ -18672,7 +18672,7 @@
       <c r="E83" s="16">
         <v>6</v>
       </c>
-      <c r="F83" s="46"/>
+      <c r="F83" s="60"/>
       <c r="G83" s="26" t="s">
         <v>144</v>
       </c>
@@ -18692,7 +18692,7 @@
       <c r="C84" s="13"/>
       <c r="D84" s="27"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="60"/>
       <c r="G84" s="26" t="s">
         <v>146</v>
       </c>
@@ -18716,7 +18716,7 @@
       <c r="E85" s="16">
         <v>1</v>
       </c>
-      <c r="F85" s="46"/>
+      <c r="F85" s="60"/>
       <c r="G85" s="26" t="s">
         <v>149</v>
       </c>
@@ -18736,7 +18736,7 @@
       <c r="C86" s="13"/>
       <c r="D86" s="27"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="60"/>
       <c r="G86" s="26" t="s">
         <v>151</v>
       </c>
@@ -18756,7 +18756,7 @@
       <c r="C87" s="13"/>
       <c r="D87" s="27"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="60"/>
       <c r="G87" s="26" t="s">
         <v>153</v>
       </c>
@@ -18776,7 +18776,7 @@
       <c r="C88" s="13"/>
       <c r="D88" s="27"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="60"/>
       <c r="G88" s="26" t="s">
         <v>155</v>
       </c>
@@ -18796,7 +18796,7 @@
       <c r="C89" s="13"/>
       <c r="D89" s="27"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="60"/>
       <c r="G89" s="26" t="s">
         <v>157</v>
       </c>
@@ -18816,7 +18816,7 @@
       <c r="C90" s="13"/>
       <c r="D90" s="27"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="60"/>
       <c r="G90" s="26" t="s">
         <v>159</v>
       </c>
@@ -18836,7 +18836,7 @@
       <c r="C91" s="13"/>
       <c r="D91" s="27"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="60"/>
       <c r="G91" s="26" t="s">
         <v>161</v>
       </c>
@@ -18856,7 +18856,7 @@
       <c r="C92" s="13"/>
       <c r="D92" s="27"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="60"/>
       <c r="G92" s="26" t="s">
         <v>163</v>
       </c>
@@ -18875,7 +18875,7 @@
       <c r="C93" s="13"/>
       <c r="D93" s="27"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="60"/>
       <c r="G93" s="26" t="s">
         <v>165</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="27"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="26" t="s">
         <v>167</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="C95" s="13"/>
       <c r="D95" s="27"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="60"/>
       <c r="G95" s="26" t="s">
         <v>169</v>
       </c>
@@ -18932,7 +18932,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="27"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="60"/>
       <c r="G96" s="26" t="s">
         <v>171</v>
       </c>
@@ -18951,7 +18951,7 @@
       <c r="C97" s="13"/>
       <c r="D97" s="27"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="60"/>
       <c r="G97" s="26" t="s">
         <v>173</v>
       </c>
@@ -18970,7 +18970,7 @@
       <c r="C98" s="13"/>
       <c r="D98" s="27"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="60"/>
       <c r="G98" s="26"/>
       <c r="H98" s="4"/>
       <c r="I98" s="13"/>
@@ -18985,7 +18985,7 @@
       <c r="C99" s="13"/>
       <c r="D99" s="27"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="60"/>
       <c r="G99" s="26"/>
       <c r="H99" s="4"/>
       <c r="I99" s="13"/>
@@ -19000,7 +19000,7 @@
       <c r="C100" s="13"/>
       <c r="D100" s="27"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="47"/>
+      <c r="F100" s="61"/>
       <c r="G100" s="26"/>
       <c r="H100" s="4"/>
       <c r="I100" s="13"/>
@@ -19015,7 +19015,7 @@
       <c r="C101" s="13"/>
       <c r="D101" s="27"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="38"/>
+      <c r="F101" s="71"/>
       <c r="G101" s="26"/>
       <c r="H101" s="4"/>
       <c r="I101" s="13"/>
@@ -19030,7 +19030,7 @@
       <c r="C102" s="13"/>
       <c r="D102" s="27"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="39"/>
+      <c r="F102" s="49"/>
       <c r="G102" s="26"/>
       <c r="H102" s="4"/>
       <c r="I102" s="13"/>
@@ -19045,7 +19045,7 @@
       <c r="C103" s="13"/>
       <c r="D103" s="27"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="39"/>
+      <c r="F103" s="49"/>
       <c r="G103" s="26"/>
       <c r="H103" s="4"/>
       <c r="I103" s="13"/>
@@ -19060,7 +19060,7 @@
       <c r="C104" s="13"/>
       <c r="D104" s="27"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="39"/>
+      <c r="F104" s="49"/>
       <c r="G104" s="26"/>
       <c r="H104" s="4"/>
       <c r="I104" s="13"/>
@@ -19075,7 +19075,7 @@
       <c r="C105" s="13"/>
       <c r="D105" s="27"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="39"/>
+      <c r="F105" s="49"/>
       <c r="G105" s="26"/>
       <c r="H105" s="4"/>
       <c r="I105" s="13"/>
@@ -19090,7 +19090,7 @@
       <c r="C106" s="13"/>
       <c r="D106" s="27"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="39"/>
+      <c r="F106" s="49"/>
       <c r="G106" s="26"/>
       <c r="H106" s="4"/>
       <c r="I106" s="13"/>
@@ -19105,7 +19105,7 @@
       <c r="C107" s="13"/>
       <c r="D107" s="27"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="39"/>
+      <c r="F107" s="49"/>
       <c r="G107" s="26"/>
       <c r="H107" s="4"/>
       <c r="I107" s="13"/>
@@ -19120,7 +19120,7 @@
       <c r="C108" s="13"/>
       <c r="D108" s="27"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="39"/>
+      <c r="F108" s="49"/>
       <c r="G108" s="26"/>
       <c r="H108" s="4"/>
       <c r="I108" s="13"/>
@@ -19135,7 +19135,7 @@
       <c r="C109" s="13"/>
       <c r="D109" s="27"/>
       <c r="E109" s="16"/>
-      <c r="F109" s="39"/>
+      <c r="F109" s="49"/>
       <c r="G109" s="26"/>
       <c r="H109" s="4"/>
       <c r="I109" s="13"/>
@@ -19150,7 +19150,7 @@
       <c r="C110" s="13"/>
       <c r="D110" s="27"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="39"/>
+      <c r="F110" s="49"/>
       <c r="G110" s="26"/>
       <c r="H110" s="4"/>
       <c r="I110" s="13"/>
@@ -19165,7 +19165,7 @@
       <c r="C111" s="13"/>
       <c r="D111" s="27"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="39"/>
+      <c r="F111" s="49"/>
       <c r="G111" s="26"/>
       <c r="H111" s="4"/>
       <c r="I111" s="13"/>
@@ -19180,7 +19180,7 @@
       <c r="C112" s="13"/>
       <c r="D112" s="27"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="39"/>
+      <c r="F112" s="49"/>
       <c r="G112" s="26"/>
       <c r="H112" s="4"/>
       <c r="I112" s="13"/>
@@ -19197,39 +19197,39 @@
       <c r="I113" s="13"/>
     </row>
     <row r="114" spans="1:12" ht="39" x14ac:dyDescent="0.6">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="42" t="s">
+      <c r="B114" s="73"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="44"/>
+      <c r="H114" s="73"/>
+      <c r="I114" s="73"/>
+      <c r="J114" s="73"/>
+      <c r="K114" s="74"/>
       <c r="L114" s="1"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="48" t="s">
+      <c r="A115" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="48"/>
-      <c r="F115" s="46"/>
-      <c r="G115" s="48" t="s">
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="H115" s="48"/>
-      <c r="I115" s="48"/>
-      <c r="J115" s="48"/>
-      <c r="K115" s="48"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -19242,7 +19242,7 @@
         <v>3</v>
       </c>
       <c r="E116" s="18"/>
-      <c r="F116" s="46"/>
+      <c r="F116" s="60"/>
       <c r="G116" s="9" t="s">
         <v>2</v>
       </c>
@@ -19255,17 +19255,17 @@
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A117" s="49"/>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="50"/>
-      <c r="F117" s="46"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="50"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="60"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="66"/>
       <c r="L117" s="1"/>
     </row>
     <row r="118" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -19276,11 +19276,11 @@
         <v>5</v>
       </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E118" s="52"/>
-      <c r="F118" s="46"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="60"/>
       <c r="G118" s="9" t="s">
         <v>51</v>
       </c>
@@ -19298,7 +19298,7 @@
       <c r="C119" s="13"/>
       <c r="D119" s="37"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="46"/>
+      <c r="F119" s="60"/>
       <c r="G119" s="26"/>
       <c r="H119" s="4"/>
       <c r="I119" s="13"/>
@@ -19311,7 +19311,7 @@
       <c r="C120" s="13"/>
       <c r="D120" s="37"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="46"/>
+      <c r="F120" s="60"/>
       <c r="G120" s="26"/>
       <c r="H120" s="4"/>
       <c r="I120" s="13"/>
@@ -19326,7 +19326,7 @@
         <v>194</v>
       </c>
       <c r="E121" s="16"/>
-      <c r="F121" s="46"/>
+      <c r="F121" s="60"/>
       <c r="G121" s="26"/>
       <c r="H121" s="4"/>
       <c r="I121" s="13"/>
@@ -19341,7 +19341,7 @@
         <v>196</v>
       </c>
       <c r="E122" s="16"/>
-      <c r="F122" s="46"/>
+      <c r="F122" s="60"/>
       <c r="G122" s="26"/>
       <c r="H122" s="4"/>
       <c r="I122" s="13"/>
@@ -19354,7 +19354,7 @@
       <c r="C123" s="13"/>
       <c r="D123" s="27"/>
       <c r="E123" s="16"/>
-      <c r="F123" s="46"/>
+      <c r="F123" s="60"/>
       <c r="G123" s="26"/>
       <c r="H123" s="4"/>
       <c r="I123" s="13"/>
@@ -19367,7 +19367,7 @@
       <c r="C124" s="13"/>
       <c r="D124" s="27"/>
       <c r="E124" s="16"/>
-      <c r="F124" s="46"/>
+      <c r="F124" s="60"/>
       <c r="G124" s="26"/>
       <c r="H124" s="4"/>
       <c r="I124" s="13"/>
@@ -19380,7 +19380,7 @@
       <c r="C125" s="13"/>
       <c r="D125" s="27"/>
       <c r="E125" s="16"/>
-      <c r="F125" s="46"/>
+      <c r="F125" s="60"/>
       <c r="G125" s="26"/>
       <c r="H125" s="4"/>
       <c r="I125" s="13"/>
@@ -19395,7 +19395,7 @@
         <v>284</v>
       </c>
       <c r="E126" s="16"/>
-      <c r="F126" s="46"/>
+      <c r="F126" s="60"/>
       <c r="G126" s="26"/>
       <c r="H126" s="4"/>
       <c r="I126" s="13"/>
@@ -19406,7 +19406,7 @@
       <c r="C127" s="13"/>
       <c r="D127" s="27"/>
       <c r="E127" s="16"/>
-      <c r="F127" s="46"/>
+      <c r="F127" s="60"/>
       <c r="G127" s="26"/>
       <c r="H127" s="4"/>
       <c r="I127" s="13"/>
@@ -19417,7 +19417,7 @@
       <c r="C128" s="13"/>
       <c r="D128" s="27"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="46"/>
+      <c r="F128" s="60"/>
       <c r="G128" s="26"/>
       <c r="H128" s="4"/>
       <c r="I128" s="13"/>
@@ -19428,7 +19428,7 @@
       <c r="C129" s="13"/>
       <c r="D129" s="27"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="46"/>
+      <c r="F129" s="60"/>
       <c r="G129" s="26"/>
       <c r="H129" s="4"/>
       <c r="I129" s="13"/>
@@ -19439,7 +19439,7 @@
       <c r="C130" s="13"/>
       <c r="D130" s="27"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="60"/>
       <c r="G130" s="26"/>
       <c r="H130" s="4"/>
       <c r="I130" s="13"/>
@@ -19450,7 +19450,7 @@
       <c r="C131" s="13"/>
       <c r="D131" s="27"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="46"/>
+      <c r="F131" s="60"/>
       <c r="G131" s="26"/>
       <c r="H131" s="4"/>
       <c r="I131" s="13"/>
@@ -19461,7 +19461,7 @@
       <c r="C132" s="13"/>
       <c r="D132" s="27"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="46"/>
+      <c r="F132" s="60"/>
       <c r="G132" s="26"/>
       <c r="H132" s="4"/>
       <c r="I132" s="13"/>
@@ -19472,7 +19472,7 @@
       <c r="C133" s="13"/>
       <c r="D133" s="27"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="46"/>
+      <c r="F133" s="60"/>
       <c r="G133" s="26"/>
       <c r="H133" s="4"/>
       <c r="I133" s="13"/>
@@ -19483,7 +19483,7 @@
       <c r="C134" s="13"/>
       <c r="D134" s="27"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="46"/>
+      <c r="F134" s="60"/>
       <c r="G134" s="26"/>
       <c r="H134" s="4"/>
       <c r="I134" s="13"/>
@@ -19494,7 +19494,7 @@
       <c r="C135" s="13"/>
       <c r="D135" s="27"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="46"/>
+      <c r="F135" s="60"/>
       <c r="G135" s="26"/>
       <c r="H135" s="4"/>
       <c r="I135" s="13"/>
@@ -19505,7 +19505,7 @@
       <c r="C136" s="13"/>
       <c r="D136" s="27"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="46"/>
+      <c r="F136" s="60"/>
       <c r="G136" s="26"/>
       <c r="H136" s="4"/>
       <c r="I136" s="13"/>
@@ -19516,7 +19516,7 @@
       <c r="C137" s="13"/>
       <c r="D137" s="27"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="46"/>
+      <c r="F137" s="60"/>
       <c r="G137" s="26"/>
       <c r="H137" s="4"/>
       <c r="I137" s="13"/>
@@ -19527,7 +19527,7 @@
       <c r="C138" s="13"/>
       <c r="D138" s="27"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="46"/>
+      <c r="F138" s="60"/>
       <c r="G138" s="26"/>
       <c r="H138" s="4"/>
       <c r="I138" s="13"/>
@@ -19538,7 +19538,7 @@
       <c r="C139" s="13"/>
       <c r="D139" s="27"/>
       <c r="E139" s="16"/>
-      <c r="F139" s="46"/>
+      <c r="F139" s="60"/>
       <c r="G139" s="26"/>
       <c r="H139" s="4"/>
       <c r="I139" s="13"/>
@@ -19549,7 +19549,7 @@
       <c r="C140" s="13"/>
       <c r="D140" s="27"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="46"/>
+      <c r="F140" s="60"/>
       <c r="G140" s="26"/>
       <c r="H140" s="4"/>
       <c r="I140" s="13"/>
@@ -19560,7 +19560,7 @@
       <c r="C141" s="13"/>
       <c r="D141" s="27"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="46"/>
+      <c r="F141" s="60"/>
       <c r="G141" s="26"/>
       <c r="H141" s="4"/>
       <c r="I141" s="13"/>
@@ -19571,7 +19571,7 @@
       <c r="C142" s="13"/>
       <c r="D142" s="27"/>
       <c r="E142" s="16"/>
-      <c r="F142" s="46"/>
+      <c r="F142" s="60"/>
       <c r="G142" s="26"/>
       <c r="H142" s="4"/>
       <c r="I142" s="13"/>
@@ -19582,7 +19582,7 @@
       <c r="C143" s="13"/>
       <c r="D143" s="27"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="46"/>
+      <c r="F143" s="60"/>
       <c r="G143" s="26"/>
       <c r="H143" s="4"/>
       <c r="I143" s="13"/>
@@ -19593,7 +19593,7 @@
       <c r="C144" s="13"/>
       <c r="D144" s="27"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="46"/>
+      <c r="F144" s="60"/>
       <c r="G144" s="26"/>
       <c r="H144" s="4"/>
       <c r="I144" s="13"/>
@@ -19604,7 +19604,7 @@
       <c r="C145" s="13"/>
       <c r="D145" s="27"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="47"/>
+      <c r="F145" s="61"/>
       <c r="G145" s="26"/>
       <c r="H145" s="4"/>
       <c r="I145" s="13"/>
@@ -19615,7 +19615,7 @@
       <c r="C146" s="13"/>
       <c r="D146" s="27"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="38"/>
+      <c r="F146" s="71"/>
       <c r="G146" s="26"/>
       <c r="H146" s="4"/>
       <c r="I146" s="13"/>
@@ -19626,7 +19626,7 @@
       <c r="C147" s="13"/>
       <c r="D147" s="27"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="39"/>
+      <c r="F147" s="49"/>
       <c r="G147" s="26"/>
       <c r="H147" s="4"/>
       <c r="I147" s="13"/>
@@ -19637,7 +19637,7 @@
       <c r="C148" s="13"/>
       <c r="D148" s="27"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="39"/>
+      <c r="F148" s="49"/>
       <c r="G148" s="26"/>
       <c r="H148" s="4"/>
       <c r="I148" s="13"/>
@@ -19648,7 +19648,7 @@
       <c r="C149" s="13"/>
       <c r="D149" s="27"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="39"/>
+      <c r="F149" s="49"/>
       <c r="G149" s="26"/>
       <c r="H149" s="4"/>
       <c r="I149" s="13"/>
@@ -19659,7 +19659,7 @@
       <c r="C150" s="13"/>
       <c r="D150" s="27"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="39"/>
+      <c r="F150" s="49"/>
       <c r="G150" s="26"/>
       <c r="H150" s="4"/>
       <c r="I150" s="13"/>
@@ -19670,7 +19670,7 @@
       <c r="C151" s="13"/>
       <c r="D151" s="27"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="39"/>
+      <c r="F151" s="49"/>
       <c r="G151" s="26"/>
       <c r="H151" s="4"/>
       <c r="I151" s="13"/>
@@ -19681,7 +19681,7 @@
       <c r="C152" s="13"/>
       <c r="D152" s="27"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="39"/>
+      <c r="F152" s="49"/>
       <c r="G152" s="26"/>
       <c r="H152" s="4"/>
       <c r="I152" s="13"/>
@@ -19692,7 +19692,7 @@
       <c r="C153" s="13"/>
       <c r="D153" s="27"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="39"/>
+      <c r="F153" s="49"/>
       <c r="G153" s="26"/>
       <c r="H153" s="4"/>
       <c r="I153" s="13"/>
@@ -19703,7 +19703,7 @@
       <c r="C154" s="13"/>
       <c r="D154" s="27"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="39"/>
+      <c r="F154" s="49"/>
       <c r="G154" s="26"/>
       <c r="H154" s="4"/>
       <c r="I154" s="13"/>
@@ -19714,7 +19714,7 @@
       <c r="C155" s="13"/>
       <c r="D155" s="27"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="39"/>
+      <c r="F155" s="49"/>
       <c r="G155" s="26"/>
       <c r="H155" s="4"/>
       <c r="I155" s="13"/>
@@ -19725,7 +19725,7 @@
       <c r="C156" s="13"/>
       <c r="D156" s="27"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="39"/>
+      <c r="F156" s="49"/>
       <c r="G156" s="26"/>
       <c r="H156" s="4"/>
       <c r="I156" s="13"/>
@@ -19736,7 +19736,7 @@
       <c r="C157" s="13"/>
       <c r="D157" s="27"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="39"/>
+      <c r="F157" s="49"/>
       <c r="G157" s="26"/>
       <c r="H157" s="4"/>
       <c r="I157" s="13"/>
@@ -19753,38 +19753,38 @@
       <c r="I158" s="13"/>
     </row>
     <row r="159" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A159" s="53" t="s">
+      <c r="A159" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="B159" s="54"/>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="45"/>
-      <c r="G159" s="42" t="s">
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="H159" s="43"/>
-      <c r="I159" s="43"/>
-      <c r="J159" s="43"/>
-      <c r="K159" s="44"/>
+      <c r="H159" s="73"/>
+      <c r="I159" s="73"/>
+      <c r="J159" s="73"/>
+      <c r="K159" s="74"/>
     </row>
     <row r="160" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="48" t="s">
+      <c r="A160" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B160" s="48"/>
-      <c r="C160" s="48"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="48" t="s">
+      <c r="B160" s="65"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="60"/>
+      <c r="G160" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="H160" s="48"/>
-      <c r="I160" s="48"/>
-      <c r="J160" s="48"/>
-      <c r="K160" s="48"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
     </row>
     <row r="161" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
@@ -19798,7 +19798,7 @@
       <c r="E161" s="18">
         <v>32</v>
       </c>
-      <c r="F161" s="46"/>
+      <c r="F161" s="60"/>
       <c r="G161" s="9" t="s">
         <v>2</v>
       </c>
@@ -19810,17 +19810,17 @@
       <c r="K161" s="18"/>
     </row>
     <row r="162" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A162" s="49"/>
-      <c r="B162" s="49"/>
-      <c r="C162" s="49"/>
-      <c r="D162" s="49"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
-      <c r="I162" s="49"/>
-      <c r="J162" s="49"/>
-      <c r="K162" s="50"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="44"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="60"/>
+      <c r="G162" s="44"/>
+      <c r="H162" s="44"/>
+      <c r="I162" s="44"/>
+      <c r="J162" s="44"/>
+      <c r="K162" s="66"/>
     </row>
     <row r="163" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
@@ -19830,11 +19830,11 @@
         <v>5</v>
       </c>
       <c r="C163" s="13"/>
-      <c r="D163" s="51" t="s">
+      <c r="D163" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E163" s="52"/>
-      <c r="F163" s="46"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="60"/>
       <c r="G163" s="9" t="s">
         <v>51</v>
       </c>
@@ -19853,7 +19853,7 @@
       <c r="C164" s="13"/>
       <c r="D164" s="27"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="46"/>
+      <c r="F164" s="60"/>
       <c r="G164" s="26"/>
       <c r="H164" s="4"/>
       <c r="I164" s="13"/>
@@ -19872,7 +19872,7 @@
       <c r="E165" s="16">
         <v>2</v>
       </c>
-      <c r="F165" s="46"/>
+      <c r="F165" s="60"/>
       <c r="G165" s="26"/>
       <c r="H165" s="4"/>
       <c r="I165" s="13"/>
@@ -19891,7 +19891,7 @@
       <c r="E166" s="16">
         <v>1</v>
       </c>
-      <c r="F166" s="46"/>
+      <c r="F166" s="60"/>
       <c r="G166" s="26"/>
       <c r="H166" s="4"/>
       <c r="I166" s="13"/>
@@ -19910,7 +19910,7 @@
       <c r="E167" s="16">
         <v>1</v>
       </c>
-      <c r="F167" s="46"/>
+      <c r="F167" s="60"/>
       <c r="G167" s="26"/>
       <c r="H167" s="4"/>
       <c r="I167" s="13"/>
@@ -19929,7 +19929,7 @@
       <c r="E168" s="16">
         <v>1</v>
       </c>
-      <c r="F168" s="46"/>
+      <c r="F168" s="60"/>
       <c r="G168" s="26"/>
       <c r="H168" s="4"/>
       <c r="I168" s="13"/>
@@ -19944,7 +19944,7 @@
       <c r="C169" s="13"/>
       <c r="D169" s="27"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="46"/>
+      <c r="F169" s="60"/>
       <c r="G169" s="26"/>
       <c r="H169" s="4"/>
       <c r="I169" s="13"/>
@@ -19959,7 +19959,7 @@
       <c r="C170" s="13"/>
       <c r="D170" s="27"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="46"/>
+      <c r="F170" s="60"/>
       <c r="G170" s="26"/>
       <c r="H170" s="4"/>
       <c r="I170" s="13"/>
@@ -19974,7 +19974,7 @@
       <c r="C171" s="13"/>
       <c r="D171" s="27"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="46"/>
+      <c r="F171" s="60"/>
       <c r="G171" s="26"/>
       <c r="H171" s="4"/>
       <c r="I171" s="13"/>
@@ -19989,7 +19989,7 @@
       <c r="C172" s="13"/>
       <c r="D172" s="27"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="46"/>
+      <c r="F172" s="60"/>
       <c r="G172" s="26"/>
       <c r="H172" s="4"/>
       <c r="I172" s="13"/>
@@ -20004,7 +20004,7 @@
       <c r="C173" s="13"/>
       <c r="D173" s="27"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="46"/>
+      <c r="F173" s="60"/>
       <c r="G173" s="26"/>
       <c r="H173" s="4"/>
       <c r="I173" s="13"/>
@@ -20019,7 +20019,7 @@
       <c r="C174" s="13"/>
       <c r="D174" s="27"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="46"/>
+      <c r="F174" s="60"/>
       <c r="G174" s="26"/>
       <c r="H174" s="4"/>
       <c r="I174" s="13"/>
@@ -20034,7 +20034,7 @@
       <c r="C175" s="13"/>
       <c r="D175" s="27"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="46"/>
+      <c r="F175" s="60"/>
       <c r="G175" s="26"/>
       <c r="H175" s="4"/>
       <c r="I175" s="13"/>
@@ -20049,7 +20049,7 @@
       <c r="C176" s="13"/>
       <c r="D176" s="27"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="46"/>
+      <c r="F176" s="60"/>
       <c r="G176" s="26"/>
       <c r="H176" s="4"/>
       <c r="I176" s="13"/>
@@ -20064,7 +20064,7 @@
       <c r="C177" s="13"/>
       <c r="D177" s="27"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="46"/>
+      <c r="F177" s="60"/>
       <c r="G177" s="26"/>
       <c r="H177" s="4"/>
       <c r="I177" s="13"/>
@@ -20077,7 +20077,7 @@
       <c r="C178" s="13"/>
       <c r="D178" s="27"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="46"/>
+      <c r="F178" s="60"/>
       <c r="G178" s="26"/>
       <c r="H178" s="4"/>
       <c r="I178" s="13"/>
@@ -20088,7 +20088,7 @@
       <c r="C179" s="13"/>
       <c r="D179" s="27"/>
       <c r="E179" s="16"/>
-      <c r="F179" s="46"/>
+      <c r="F179" s="60"/>
       <c r="G179" s="26"/>
       <c r="H179" s="4"/>
       <c r="I179" s="13"/>
@@ -20099,7 +20099,7 @@
       <c r="C180" s="13"/>
       <c r="D180" s="27"/>
       <c r="E180" s="16"/>
-      <c r="F180" s="46"/>
+      <c r="F180" s="60"/>
       <c r="G180" s="26"/>
       <c r="H180" s="4"/>
       <c r="I180" s="13"/>
@@ -20110,7 +20110,7 @@
       <c r="C181" s="13"/>
       <c r="D181" s="27"/>
       <c r="E181" s="16"/>
-      <c r="F181" s="46"/>
+      <c r="F181" s="60"/>
       <c r="G181" s="26"/>
       <c r="H181" s="4"/>
       <c r="I181" s="13"/>
@@ -20121,7 +20121,7 @@
       <c r="C182" s="13"/>
       <c r="D182" s="27"/>
       <c r="E182" s="16"/>
-      <c r="F182" s="46"/>
+      <c r="F182" s="60"/>
       <c r="G182" s="26"/>
       <c r="H182" s="4"/>
       <c r="I182" s="13"/>
@@ -20132,7 +20132,7 @@
       <c r="C183" s="13"/>
       <c r="D183" s="27"/>
       <c r="E183" s="16"/>
-      <c r="F183" s="46"/>
+      <c r="F183" s="60"/>
       <c r="G183" s="26"/>
       <c r="H183" s="4"/>
       <c r="I183" s="13"/>
@@ -20143,7 +20143,7 @@
       <c r="C184" s="13"/>
       <c r="D184" s="27"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="46"/>
+      <c r="F184" s="60"/>
       <c r="G184" s="26"/>
       <c r="H184" s="4"/>
       <c r="I184" s="13"/>
@@ -20154,7 +20154,7 @@
       <c r="C185" s="13"/>
       <c r="D185" s="27"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="46"/>
+      <c r="F185" s="60"/>
       <c r="G185" s="26"/>
       <c r="H185" s="4"/>
       <c r="I185" s="13"/>
@@ -20165,7 +20165,7 @@
       <c r="C186" s="13"/>
       <c r="D186" s="27"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="46"/>
+      <c r="F186" s="60"/>
       <c r="G186" s="26"/>
       <c r="H186" s="4"/>
       <c r="I186" s="13"/>
@@ -20176,7 +20176,7 @@
       <c r="C187" s="13"/>
       <c r="D187" s="27"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="46"/>
+      <c r="F187" s="60"/>
       <c r="G187" s="26"/>
       <c r="H187" s="4"/>
       <c r="I187" s="13"/>
@@ -20187,7 +20187,7 @@
       <c r="C188" s="13"/>
       <c r="D188" s="27"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="46"/>
+      <c r="F188" s="60"/>
       <c r="G188" s="26"/>
       <c r="H188" s="4"/>
       <c r="I188" s="13"/>
@@ -20198,7 +20198,7 @@
       <c r="C189" s="13"/>
       <c r="D189" s="27"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="46"/>
+      <c r="F189" s="60"/>
       <c r="G189" s="26"/>
       <c r="H189" s="4"/>
       <c r="I189" s="13"/>
@@ -20209,7 +20209,7 @@
       <c r="C190" s="13"/>
       <c r="D190" s="27"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="47"/>
+      <c r="F190" s="61"/>
       <c r="G190" s="26"/>
       <c r="H190" s="4"/>
       <c r="I190" s="13"/>
@@ -20336,49 +20336,49 @@
       <c r="I201" s="13"/>
     </row>
     <row r="202" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A202" s="40"/>
-      <c r="B202" s="41"/>
-      <c r="C202" s="41"/>
-      <c r="D202" s="41"/>
-      <c r="E202" s="41"/>
-      <c r="F202" s="41"/>
-      <c r="G202" s="41"/>
-      <c r="H202" s="41"/>
-      <c r="I202" s="41"/>
+      <c r="A202" s="75"/>
+      <c r="B202" s="76"/>
+      <c r="C202" s="76"/>
+      <c r="D202" s="76"/>
+      <c r="E202" s="76"/>
+      <c r="F202" s="76"/>
+      <c r="G202" s="76"/>
+      <c r="H202" s="76"/>
+      <c r="I202" s="76"/>
     </row>
     <row r="203" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A203" s="53" t="s">
+      <c r="A203" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="B203" s="54"/>
-      <c r="C203" s="54"/>
-      <c r="D203" s="54"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="45"/>
-      <c r="G203" s="42" t="s">
+      <c r="B203" s="38"/>
+      <c r="C203" s="38"/>
+      <c r="D203" s="38"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="H203" s="43"/>
-      <c r="I203" s="43"/>
-      <c r="J203" s="43"/>
-      <c r="K203" s="44"/>
+      <c r="H203" s="73"/>
+      <c r="I203" s="73"/>
+      <c r="J203" s="73"/>
+      <c r="K203" s="74"/>
     </row>
     <row r="204" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="48" t="s">
+      <c r="A204" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="B204" s="48"/>
-      <c r="C204" s="48"/>
-      <c r="D204" s="48"/>
-      <c r="E204" s="48"/>
-      <c r="F204" s="46"/>
-      <c r="G204" s="48" t="s">
+      <c r="B204" s="65"/>
+      <c r="C204" s="65"/>
+      <c r="D204" s="65"/>
+      <c r="E204" s="65"/>
+      <c r="F204" s="60"/>
+      <c r="G204" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="H204" s="48"/>
-      <c r="I204" s="48"/>
-      <c r="J204" s="48"/>
-      <c r="K204" s="48"/>
+      <c r="H204" s="65"/>
+      <c r="I204" s="65"/>
+      <c r="J204" s="65"/>
+      <c r="K204" s="65"/>
     </row>
     <row r="205" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
@@ -20392,7 +20392,7 @@
       <c r="E205" s="18">
         <v>147</v>
       </c>
-      <c r="F205" s="46"/>
+      <c r="F205" s="60"/>
       <c r="G205" s="9" t="s">
         <v>2</v>
       </c>
@@ -20404,17 +20404,17 @@
       <c r="K205" s="18"/>
     </row>
     <row r="206" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="49"/>
-      <c r="B206" s="49"/>
-      <c r="C206" s="49"/>
-      <c r="D206" s="49"/>
-      <c r="E206" s="50"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="49"/>
-      <c r="H206" s="49"/>
-      <c r="I206" s="49"/>
-      <c r="J206" s="49"/>
-      <c r="K206" s="50"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="66"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="44"/>
+      <c r="I206" s="44"/>
+      <c r="J206" s="44"/>
+      <c r="K206" s="66"/>
     </row>
     <row r="207" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
@@ -20424,11 +20424,11 @@
         <v>5</v>
       </c>
       <c r="C207" s="13"/>
-      <c r="D207" s="51" t="s">
+      <c r="D207" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E207" s="52"/>
-      <c r="F207" s="46"/>
+      <c r="E207" s="67"/>
+      <c r="F207" s="60"/>
       <c r="G207" s="9" t="s">
         <v>51</v>
       </c>
@@ -20451,7 +20451,7 @@
       <c r="E208" s="16">
         <v>8</v>
       </c>
-      <c r="F208" s="46"/>
+      <c r="F208" s="60"/>
       <c r="G208" s="26"/>
       <c r="H208" s="4"/>
       <c r="I208" s="13"/>
@@ -20470,7 +20470,7 @@
       <c r="E209" s="16">
         <v>12</v>
       </c>
-      <c r="F209" s="46"/>
+      <c r="F209" s="60"/>
       <c r="G209" s="26"/>
       <c r="H209" s="4"/>
       <c r="I209" s="13"/>
@@ -20489,7 +20489,7 @@
       <c r="E210" s="16">
         <v>3</v>
       </c>
-      <c r="F210" s="46"/>
+      <c r="F210" s="60"/>
       <c r="G210" s="26"/>
       <c r="H210" s="4"/>
       <c r="I210" s="13"/>
@@ -20508,7 +20508,7 @@
       <c r="E211" s="16">
         <v>5</v>
       </c>
-      <c r="F211" s="46"/>
+      <c r="F211" s="60"/>
       <c r="G211" s="26"/>
       <c r="H211" s="4"/>
       <c r="I211" s="13"/>
@@ -20527,7 +20527,7 @@
       <c r="E212" s="16">
         <v>4</v>
       </c>
-      <c r="F212" s="46"/>
+      <c r="F212" s="60"/>
       <c r="G212" s="26"/>
       <c r="H212" s="4"/>
       <c r="I212" s="13"/>
@@ -20546,7 +20546,7 @@
       <c r="E213" s="16">
         <v>6</v>
       </c>
-      <c r="F213" s="46"/>
+      <c r="F213" s="60"/>
       <c r="G213" s="26"/>
       <c r="H213" s="4"/>
       <c r="I213" s="13"/>
@@ -20565,7 +20565,7 @@
       <c r="E214" s="16">
         <v>3</v>
       </c>
-      <c r="F214" s="46"/>
+      <c r="F214" s="60"/>
       <c r="G214" s="26"/>
       <c r="H214" s="4"/>
       <c r="I214" s="13"/>
@@ -20580,7 +20580,7 @@
       <c r="E215" s="16">
         <v>1</v>
       </c>
-      <c r="F215" s="46"/>
+      <c r="F215" s="60"/>
       <c r="G215" s="26"/>
       <c r="H215" s="4"/>
       <c r="I215" s="13"/>
@@ -20595,7 +20595,7 @@
       <c r="E216" s="16">
         <v>3</v>
       </c>
-      <c r="F216" s="46"/>
+      <c r="F216" s="60"/>
       <c r="G216" s="26"/>
       <c r="H216" s="4"/>
       <c r="I216" s="13"/>
@@ -20610,7 +20610,7 @@
       <c r="E217" s="16">
         <v>6</v>
       </c>
-      <c r="F217" s="46"/>
+      <c r="F217" s="60"/>
       <c r="G217" s="26"/>
       <c r="H217" s="4"/>
       <c r="I217" s="13"/>
@@ -20625,7 +20625,7 @@
       <c r="E218" s="16">
         <v>1</v>
       </c>
-      <c r="F218" s="46"/>
+      <c r="F218" s="60"/>
       <c r="G218" s="26"/>
       <c r="H218" s="4"/>
       <c r="I218" s="13"/>
@@ -20640,7 +20640,7 @@
       <c r="E219" s="16">
         <v>3</v>
       </c>
-      <c r="F219" s="46"/>
+      <c r="F219" s="60"/>
       <c r="G219" s="26"/>
       <c r="H219" s="4"/>
       <c r="I219" s="13"/>
@@ -20655,7 +20655,7 @@
       <c r="E220" s="16">
         <v>3</v>
       </c>
-      <c r="F220" s="46"/>
+      <c r="F220" s="60"/>
       <c r="G220" s="26"/>
       <c r="H220" s="4"/>
       <c r="I220" s="13"/>
@@ -20670,7 +20670,7 @@
       <c r="E221" s="16">
         <v>1</v>
       </c>
-      <c r="F221" s="46"/>
+      <c r="F221" s="60"/>
       <c r="G221" s="26"/>
       <c r="H221" s="4"/>
       <c r="I221" s="13"/>
@@ -20685,7 +20685,7 @@
       <c r="E222" s="16">
         <v>19</v>
       </c>
-      <c r="F222" s="46"/>
+      <c r="F222" s="60"/>
       <c r="G222" s="26"/>
       <c r="H222" s="4"/>
       <c r="I222" s="13"/>
@@ -20700,7 +20700,7 @@
       <c r="E223" s="16">
         <v>4</v>
       </c>
-      <c r="F223" s="46"/>
+      <c r="F223" s="60"/>
       <c r="G223" s="26"/>
       <c r="H223" s="4"/>
       <c r="I223" s="13"/>
@@ -20715,7 +20715,7 @@
       <c r="E224" s="16">
         <v>6</v>
       </c>
-      <c r="F224" s="46"/>
+      <c r="F224" s="60"/>
       <c r="G224" s="26"/>
       <c r="H224" s="4"/>
       <c r="I224" s="13"/>
@@ -20730,7 +20730,7 @@
       <c r="E225" s="16">
         <v>4</v>
       </c>
-      <c r="F225" s="46"/>
+      <c r="F225" s="60"/>
       <c r="G225" s="26"/>
       <c r="H225" s="4"/>
       <c r="I225" s="13"/>
@@ -20745,7 +20745,7 @@
       <c r="E226" s="16">
         <v>1</v>
       </c>
-      <c r="F226" s="46"/>
+      <c r="F226" s="60"/>
       <c r="G226" s="26"/>
       <c r="H226" s="4"/>
       <c r="I226" s="13"/>
@@ -20760,7 +20760,7 @@
       <c r="E227" s="16">
         <v>2</v>
       </c>
-      <c r="F227" s="46"/>
+      <c r="F227" s="60"/>
       <c r="G227" s="26"/>
       <c r="H227" s="4"/>
       <c r="I227" s="13"/>
@@ -20771,7 +20771,7 @@
       <c r="C228" s="13"/>
       <c r="D228" s="27"/>
       <c r="E228" s="16"/>
-      <c r="F228" s="46"/>
+      <c r="F228" s="60"/>
       <c r="G228" s="26"/>
       <c r="H228" s="4"/>
       <c r="I228" s="13"/>
@@ -20782,7 +20782,7 @@
       <c r="C229" s="13"/>
       <c r="D229" s="27"/>
       <c r="E229" s="16"/>
-      <c r="F229" s="46"/>
+      <c r="F229" s="60"/>
       <c r="G229" s="26"/>
       <c r="H229" s="4"/>
       <c r="I229" s="13"/>
@@ -20793,7 +20793,7 @@
       <c r="C230" s="13"/>
       <c r="D230" s="27"/>
       <c r="E230" s="16"/>
-      <c r="F230" s="46"/>
+      <c r="F230" s="60"/>
       <c r="G230" s="26"/>
       <c r="H230" s="4"/>
       <c r="I230" s="13"/>
@@ -20804,7 +20804,7 @@
       <c r="C231" s="13"/>
       <c r="D231" s="27"/>
       <c r="E231" s="16"/>
-      <c r="F231" s="46"/>
+      <c r="F231" s="60"/>
       <c r="G231" s="26"/>
       <c r="H231" s="4"/>
       <c r="I231" s="13"/>
@@ -20815,7 +20815,7 @@
       <c r="C232" s="13"/>
       <c r="D232" s="27"/>
       <c r="E232" s="16"/>
-      <c r="F232" s="46"/>
+      <c r="F232" s="60"/>
       <c r="G232" s="26"/>
       <c r="H232" s="4"/>
       <c r="I232" s="13"/>
@@ -20826,7 +20826,7 @@
       <c r="C233" s="13"/>
       <c r="D233" s="27"/>
       <c r="E233" s="16"/>
-      <c r="F233" s="46"/>
+      <c r="F233" s="60"/>
       <c r="G233" s="26"/>
       <c r="H233" s="4"/>
       <c r="I233" s="13"/>
@@ -20837,7 +20837,7 @@
       <c r="C234" s="13"/>
       <c r="D234" s="27"/>
       <c r="E234" s="16"/>
-      <c r="F234" s="47"/>
+      <c r="F234" s="61"/>
       <c r="G234" s="26"/>
       <c r="H234" s="4"/>
       <c r="I234" s="13"/>
@@ -20848,7 +20848,7 @@
       <c r="C235" s="13"/>
       <c r="D235" s="27"/>
       <c r="E235" s="16"/>
-      <c r="F235" s="38"/>
+      <c r="F235" s="71"/>
       <c r="G235" s="26"/>
       <c r="H235" s="4"/>
       <c r="I235" s="13"/>
@@ -20859,7 +20859,7 @@
       <c r="C236" s="13"/>
       <c r="D236" s="27"/>
       <c r="E236" s="16"/>
-      <c r="F236" s="39"/>
+      <c r="F236" s="49"/>
       <c r="G236" s="26"/>
       <c r="H236" s="4"/>
       <c r="I236" s="13"/>
@@ -20870,7 +20870,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="27"/>
       <c r="E237" s="16"/>
-      <c r="F237" s="39"/>
+      <c r="F237" s="49"/>
       <c r="G237" s="26"/>
       <c r="H237" s="4"/>
       <c r="I237" s="13"/>
@@ -20881,7 +20881,7 @@
       <c r="C238" s="13"/>
       <c r="D238" s="27"/>
       <c r="E238" s="16"/>
-      <c r="F238" s="39"/>
+      <c r="F238" s="49"/>
       <c r="G238" s="26"/>
       <c r="H238" s="4"/>
       <c r="I238" s="13"/>
@@ -20892,7 +20892,7 @@
       <c r="C239" s="13"/>
       <c r="D239" s="27"/>
       <c r="E239" s="16"/>
-      <c r="F239" s="39"/>
+      <c r="F239" s="49"/>
       <c r="G239" s="26"/>
       <c r="H239" s="4"/>
       <c r="I239" s="13"/>
@@ -20903,7 +20903,7 @@
       <c r="C240" s="13"/>
       <c r="D240" s="27"/>
       <c r="E240" s="16"/>
-      <c r="F240" s="39"/>
+      <c r="F240" s="49"/>
       <c r="G240" s="26"/>
       <c r="H240" s="4"/>
       <c r="I240" s="13"/>
@@ -20914,7 +20914,7 @@
       <c r="C241" s="13"/>
       <c r="D241" s="27"/>
       <c r="E241" s="16"/>
-      <c r="F241" s="39"/>
+      <c r="F241" s="49"/>
       <c r="G241" s="26"/>
       <c r="H241" s="4"/>
       <c r="I241" s="13"/>
@@ -20925,7 +20925,7 @@
       <c r="C242" s="13"/>
       <c r="D242" s="27"/>
       <c r="E242" s="16"/>
-      <c r="F242" s="39"/>
+      <c r="F242" s="49"/>
       <c r="G242" s="26"/>
       <c r="H242" s="4"/>
       <c r="I242" s="13"/>
@@ -20936,7 +20936,7 @@
       <c r="C243" s="13"/>
       <c r="D243" s="27"/>
       <c r="E243" s="16"/>
-      <c r="F243" s="39"/>
+      <c r="F243" s="49"/>
       <c r="G243" s="26"/>
       <c r="H243" s="4"/>
       <c r="I243" s="13"/>
@@ -20947,7 +20947,7 @@
       <c r="C244" s="13"/>
       <c r="D244" s="27"/>
       <c r="E244" s="16"/>
-      <c r="F244" s="39"/>
+      <c r="F244" s="49"/>
       <c r="G244" s="26"/>
       <c r="H244" s="4"/>
       <c r="I244" s="13"/>
@@ -20958,7 +20958,7 @@
       <c r="C245" s="13"/>
       <c r="D245" s="27"/>
       <c r="E245" s="16"/>
-      <c r="F245" s="39"/>
+      <c r="F245" s="49"/>
       <c r="G245" s="26"/>
       <c r="H245" s="4"/>
       <c r="I245" s="13"/>
@@ -20969,55 +20969,55 @@
       <c r="C246" s="13"/>
       <c r="D246" s="27"/>
       <c r="E246" s="16"/>
-      <c r="F246" s="39"/>
+      <c r="F246" s="49"/>
       <c r="G246" s="26"/>
       <c r="H246" s="4"/>
       <c r="I246" s="13"/>
     </row>
     <row r="247" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A247" s="40"/>
-      <c r="B247" s="41"/>
-      <c r="C247" s="41"/>
-      <c r="D247" s="41"/>
-      <c r="E247" s="41"/>
-      <c r="F247" s="41"/>
-      <c r="G247" s="41"/>
-      <c r="H247" s="41"/>
-      <c r="I247" s="41"/>
+      <c r="A247" s="75"/>
+      <c r="B247" s="76"/>
+      <c r="C247" s="76"/>
+      <c r="D247" s="76"/>
+      <c r="E247" s="76"/>
+      <c r="F247" s="76"/>
+      <c r="G247" s="76"/>
+      <c r="H247" s="76"/>
+      <c r="I247" s="76"/>
     </row>
     <row r="248" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A248" s="42" t="s">
+      <c r="A248" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="43"/>
-      <c r="E248" s="44"/>
-      <c r="F248" s="45"/>
-      <c r="G248" s="42" t="s">
+      <c r="B248" s="73"/>
+      <c r="C248" s="73"/>
+      <c r="D248" s="73"/>
+      <c r="E248" s="74"/>
+      <c r="F248" s="59"/>
+      <c r="G248" s="72" t="s">
         <v>248</v>
       </c>
-      <c r="H248" s="43"/>
-      <c r="I248" s="43"/>
-      <c r="J248" s="43"/>
-      <c r="K248" s="44"/>
+      <c r="H248" s="73"/>
+      <c r="I248" s="73"/>
+      <c r="J248" s="73"/>
+      <c r="K248" s="74"/>
     </row>
     <row r="249" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="48" t="s">
+      <c r="A249" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="B249" s="48"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48"/>
-      <c r="E249" s="48"/>
-      <c r="F249" s="46"/>
-      <c r="G249" s="48" t="s">
+      <c r="B249" s="65"/>
+      <c r="C249" s="65"/>
+      <c r="D249" s="65"/>
+      <c r="E249" s="65"/>
+      <c r="F249" s="60"/>
+      <c r="G249" s="65" t="s">
         <v>250</v>
       </c>
-      <c r="H249" s="48"/>
-      <c r="I249" s="48"/>
-      <c r="J249" s="48"/>
-      <c r="K249" s="48"/>
+      <c r="H249" s="65"/>
+      <c r="I249" s="65"/>
+      <c r="J249" s="65"/>
+      <c r="K249" s="65"/>
     </row>
     <row r="250" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
@@ -21031,7 +21031,7 @@
       <c r="E250" s="18">
         <v>32</v>
       </c>
-      <c r="F250" s="46"/>
+      <c r="F250" s="60"/>
       <c r="G250" s="9" t="s">
         <v>2</v>
       </c>
@@ -21043,17 +21043,17 @@
       <c r="K250" s="18"/>
     </row>
     <row r="251" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A251" s="49"/>
-      <c r="B251" s="49"/>
-      <c r="C251" s="49"/>
-      <c r="D251" s="49"/>
-      <c r="E251" s="50"/>
-      <c r="F251" s="46"/>
-      <c r="G251" s="49"/>
-      <c r="H251" s="49"/>
-      <c r="I251" s="49"/>
-      <c r="J251" s="49"/>
-      <c r="K251" s="50"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="44"/>
+      <c r="E251" s="66"/>
+      <c r="F251" s="60"/>
+      <c r="G251" s="44"/>
+      <c r="H251" s="44"/>
+      <c r="I251" s="44"/>
+      <c r="J251" s="44"/>
+      <c r="K251" s="66"/>
     </row>
     <row r="252" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
@@ -21063,11 +21063,11 @@
         <v>5</v>
       </c>
       <c r="C252" s="13"/>
-      <c r="D252" s="51" t="s">
+      <c r="D252" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E252" s="52"/>
-      <c r="F252" s="46"/>
+      <c r="E252" s="67"/>
+      <c r="F252" s="60"/>
       <c r="G252" s="9" t="s">
         <v>51</v>
       </c>
@@ -21082,7 +21082,7 @@
       <c r="C253" s="13"/>
       <c r="D253" s="27"/>
       <c r="E253" s="16"/>
-      <c r="F253" s="46"/>
+      <c r="F253" s="60"/>
       <c r="G253" s="26"/>
       <c r="H253" s="4"/>
       <c r="I253" s="13"/>
@@ -21093,7 +21093,7 @@
       <c r="C254" s="13"/>
       <c r="D254" s="27"/>
       <c r="E254" s="16"/>
-      <c r="F254" s="46"/>
+      <c r="F254" s="60"/>
       <c r="G254" s="26"/>
       <c r="H254" s="4"/>
       <c r="I254" s="13"/>
@@ -21104,7 +21104,7 @@
       <c r="C255" s="13"/>
       <c r="D255" s="27"/>
       <c r="E255" s="16"/>
-      <c r="F255" s="46"/>
+      <c r="F255" s="60"/>
       <c r="G255" s="26"/>
       <c r="H255" s="4"/>
       <c r="I255" s="13"/>
@@ -21115,7 +21115,7 @@
       <c r="C256" s="13"/>
       <c r="D256" s="27"/>
       <c r="E256" s="16"/>
-      <c r="F256" s="46"/>
+      <c r="F256" s="60"/>
       <c r="G256" s="26"/>
       <c r="H256" s="4"/>
       <c r="I256" s="13"/>
@@ -21126,7 +21126,7 @@
       <c r="C257" s="13"/>
       <c r="D257" s="27"/>
       <c r="E257" s="16"/>
-      <c r="F257" s="46"/>
+      <c r="F257" s="60"/>
       <c r="G257" s="26"/>
       <c r="H257" s="4"/>
       <c r="I257" s="13"/>
@@ -21137,7 +21137,7 @@
       <c r="C258" s="13"/>
       <c r="D258" s="27"/>
       <c r="E258" s="16"/>
-      <c r="F258" s="46"/>
+      <c r="F258" s="60"/>
       <c r="G258" s="26"/>
       <c r="H258" s="4"/>
       <c r="I258" s="13"/>
@@ -21148,7 +21148,7 @@
       <c r="C259" s="13"/>
       <c r="D259" s="27"/>
       <c r="E259" s="16"/>
-      <c r="F259" s="46"/>
+      <c r="F259" s="60"/>
       <c r="G259" s="26"/>
       <c r="H259" s="4"/>
       <c r="I259" s="13"/>
@@ -21159,7 +21159,7 @@
       <c r="C260" s="13"/>
       <c r="D260" s="27"/>
       <c r="E260" s="16"/>
-      <c r="F260" s="46"/>
+      <c r="F260" s="60"/>
       <c r="G260" s="26"/>
       <c r="H260" s="4"/>
       <c r="I260" s="13"/>
@@ -21170,7 +21170,7 @@
       <c r="C261" s="13"/>
       <c r="D261" s="27"/>
       <c r="E261" s="16"/>
-      <c r="F261" s="46"/>
+      <c r="F261" s="60"/>
       <c r="G261" s="26"/>
       <c r="H261" s="4"/>
       <c r="I261" s="13"/>
@@ -21181,7 +21181,7 @@
       <c r="C262" s="13"/>
       <c r="D262" s="27"/>
       <c r="E262" s="16"/>
-      <c r="F262" s="46"/>
+      <c r="F262" s="60"/>
       <c r="G262" s="26"/>
       <c r="H262" s="4"/>
       <c r="I262" s="13"/>
@@ -21192,7 +21192,7 @@
       <c r="C263" s="13"/>
       <c r="D263" s="27"/>
       <c r="E263" s="16"/>
-      <c r="F263" s="46"/>
+      <c r="F263" s="60"/>
       <c r="G263" s="26"/>
       <c r="H263" s="4"/>
       <c r="I263" s="13"/>
@@ -21203,7 +21203,7 @@
       <c r="C264" s="13"/>
       <c r="D264" s="27"/>
       <c r="E264" s="16"/>
-      <c r="F264" s="46"/>
+      <c r="F264" s="60"/>
       <c r="G264" s="26"/>
       <c r="H264" s="4"/>
       <c r="I264" s="13"/>
@@ -21214,7 +21214,7 @@
       <c r="C265" s="13"/>
       <c r="D265" s="27"/>
       <c r="E265" s="16"/>
-      <c r="F265" s="46"/>
+      <c r="F265" s="60"/>
       <c r="G265" s="26"/>
       <c r="H265" s="4"/>
       <c r="I265" s="13"/>
@@ -21225,7 +21225,7 @@
       <c r="C266" s="13"/>
       <c r="D266" s="27"/>
       <c r="E266" s="16"/>
-      <c r="F266" s="46"/>
+      <c r="F266" s="60"/>
       <c r="G266" s="26"/>
       <c r="H266" s="4"/>
       <c r="I266" s="13"/>
@@ -21236,7 +21236,7 @@
       <c r="C267" s="13"/>
       <c r="D267" s="27"/>
       <c r="E267" s="16"/>
-      <c r="F267" s="46"/>
+      <c r="F267" s="60"/>
       <c r="G267" s="26"/>
       <c r="H267" s="4"/>
       <c r="I267" s="13"/>
@@ -21247,7 +21247,7 @@
       <c r="C268" s="13"/>
       <c r="D268" s="27"/>
       <c r="E268" s="16"/>
-      <c r="F268" s="46"/>
+      <c r="F268" s="60"/>
       <c r="G268" s="26"/>
       <c r="H268" s="4"/>
       <c r="I268" s="13"/>
@@ -21258,7 +21258,7 @@
       <c r="C269" s="13"/>
       <c r="D269" s="27"/>
       <c r="E269" s="16"/>
-      <c r="F269" s="46"/>
+      <c r="F269" s="60"/>
       <c r="G269" s="26"/>
       <c r="H269" s="4"/>
       <c r="I269" s="13"/>
@@ -21269,7 +21269,7 @@
       <c r="C270" s="13"/>
       <c r="D270" s="27"/>
       <c r="E270" s="16"/>
-      <c r="F270" s="46"/>
+      <c r="F270" s="60"/>
       <c r="G270" s="26"/>
       <c r="H270" s="4"/>
       <c r="I270" s="13"/>
@@ -21280,7 +21280,7 @@
       <c r="C271" s="13"/>
       <c r="D271" s="27"/>
       <c r="E271" s="16"/>
-      <c r="F271" s="46"/>
+      <c r="F271" s="60"/>
       <c r="G271" s="26"/>
       <c r="H271" s="4"/>
       <c r="I271" s="13"/>
@@ -21291,7 +21291,7 @@
       <c r="C272" s="13"/>
       <c r="D272" s="27"/>
       <c r="E272" s="16"/>
-      <c r="F272" s="46"/>
+      <c r="F272" s="60"/>
       <c r="G272" s="26"/>
       <c r="H272" s="4"/>
       <c r="I272" s="13"/>
@@ -21302,7 +21302,7 @@
       <c r="C273" s="13"/>
       <c r="D273" s="27"/>
       <c r="E273" s="16"/>
-      <c r="F273" s="46"/>
+      <c r="F273" s="60"/>
       <c r="G273" s="26"/>
       <c r="H273" s="4"/>
       <c r="I273" s="13"/>
@@ -21313,7 +21313,7 @@
       <c r="C274" s="13"/>
       <c r="D274" s="27"/>
       <c r="E274" s="16"/>
-      <c r="F274" s="46"/>
+      <c r="F274" s="60"/>
       <c r="G274" s="26"/>
       <c r="H274" s="4"/>
       <c r="I274" s="13"/>
@@ -21324,7 +21324,7 @@
       <c r="C275" s="13"/>
       <c r="D275" s="27"/>
       <c r="E275" s="16"/>
-      <c r="F275" s="46"/>
+      <c r="F275" s="60"/>
       <c r="G275" s="26"/>
       <c r="H275" s="4"/>
       <c r="I275" s="13"/>
@@ -21335,7 +21335,7 @@
       <c r="C276" s="13"/>
       <c r="D276" s="27"/>
       <c r="E276" s="16"/>
-      <c r="F276" s="46"/>
+      <c r="F276" s="60"/>
       <c r="G276" s="26"/>
       <c r="H276" s="4"/>
       <c r="I276" s="13"/>
@@ -21346,7 +21346,7 @@
       <c r="C277" s="13"/>
       <c r="D277" s="27"/>
       <c r="E277" s="16"/>
-      <c r="F277" s="46"/>
+      <c r="F277" s="60"/>
       <c r="G277" s="26"/>
       <c r="H277" s="4"/>
       <c r="I277" s="13"/>
@@ -21357,7 +21357,7 @@
       <c r="C278" s="13"/>
       <c r="D278" s="27"/>
       <c r="E278" s="16"/>
-      <c r="F278" s="46"/>
+      <c r="F278" s="60"/>
       <c r="G278" s="26"/>
       <c r="H278" s="4"/>
       <c r="I278" s="13"/>
@@ -21368,7 +21368,7 @@
       <c r="C279" s="13"/>
       <c r="D279" s="27"/>
       <c r="E279" s="16"/>
-      <c r="F279" s="47"/>
+      <c r="F279" s="61"/>
       <c r="G279" s="26"/>
       <c r="H279" s="4"/>
       <c r="I279" s="13"/>
@@ -21379,7 +21379,7 @@
       <c r="C280" s="13"/>
       <c r="D280" s="27"/>
       <c r="E280" s="16"/>
-      <c r="F280" s="38"/>
+      <c r="F280" s="71"/>
       <c r="G280" s="26"/>
       <c r="H280" s="4"/>
       <c r="I280" s="13"/>
@@ -21390,7 +21390,7 @@
       <c r="C281" s="13"/>
       <c r="D281" s="27"/>
       <c r="E281" s="16"/>
-      <c r="F281" s="39"/>
+      <c r="F281" s="49"/>
       <c r="G281" s="26"/>
       <c r="H281" s="4"/>
       <c r="I281" s="13"/>
@@ -21401,7 +21401,7 @@
       <c r="C282" s="13"/>
       <c r="D282" s="27"/>
       <c r="E282" s="16"/>
-      <c r="F282" s="39"/>
+      <c r="F282" s="49"/>
       <c r="G282" s="26"/>
       <c r="H282" s="4"/>
       <c r="I282" s="13"/>
@@ -21412,7 +21412,7 @@
       <c r="C283" s="13"/>
       <c r="D283" s="27"/>
       <c r="E283" s="16"/>
-      <c r="F283" s="39"/>
+      <c r="F283" s="49"/>
       <c r="G283" s="26"/>
       <c r="H283" s="4"/>
       <c r="I283" s="13"/>
@@ -21423,7 +21423,7 @@
       <c r="C284" s="13"/>
       <c r="D284" s="27"/>
       <c r="E284" s="16"/>
-      <c r="F284" s="39"/>
+      <c r="F284" s="49"/>
       <c r="G284" s="26"/>
       <c r="H284" s="4"/>
       <c r="I284" s="13"/>
@@ -21434,7 +21434,7 @@
       <c r="C285" s="13"/>
       <c r="D285" s="27"/>
       <c r="E285" s="16"/>
-      <c r="F285" s="39"/>
+      <c r="F285" s="49"/>
       <c r="G285" s="26"/>
       <c r="H285" s="4"/>
       <c r="I285" s="13"/>
@@ -21445,7 +21445,7 @@
       <c r="C286" s="13"/>
       <c r="D286" s="27"/>
       <c r="E286" s="16"/>
-      <c r="F286" s="39"/>
+      <c r="F286" s="49"/>
       <c r="G286" s="26"/>
       <c r="H286" s="4"/>
       <c r="I286" s="13"/>
@@ -21456,7 +21456,7 @@
       <c r="C287" s="13"/>
       <c r="D287" s="27"/>
       <c r="E287" s="16"/>
-      <c r="F287" s="39"/>
+      <c r="F287" s="49"/>
       <c r="G287" s="26"/>
       <c r="H287" s="4"/>
       <c r="I287" s="13"/>
@@ -21467,7 +21467,7 @@
       <c r="C288" s="13"/>
       <c r="D288" s="27"/>
       <c r="E288" s="16"/>
-      <c r="F288" s="39"/>
+      <c r="F288" s="49"/>
       <c r="G288" s="26"/>
       <c r="H288" s="4"/>
       <c r="I288" s="13"/>
@@ -21478,7 +21478,7 @@
       <c r="C289" s="13"/>
       <c r="D289" s="27"/>
       <c r="E289" s="16"/>
-      <c r="F289" s="39"/>
+      <c r="F289" s="49"/>
       <c r="G289" s="26"/>
       <c r="H289" s="4"/>
       <c r="I289" s="13"/>
@@ -21489,7 +21489,7 @@
       <c r="C290" s="13"/>
       <c r="D290" s="27"/>
       <c r="E290" s="16"/>
-      <c r="F290" s="39"/>
+      <c r="F290" s="49"/>
       <c r="G290" s="26"/>
       <c r="H290" s="4"/>
       <c r="I290" s="13"/>
@@ -21500,55 +21500,55 @@
       <c r="C291" s="13"/>
       <c r="D291" s="27"/>
       <c r="E291" s="16"/>
-      <c r="F291" s="39"/>
+      <c r="F291" s="49"/>
       <c r="G291" s="26"/>
       <c r="H291" s="4"/>
       <c r="I291" s="13"/>
     </row>
     <row r="292" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A292" s="40"/>
-      <c r="B292" s="41"/>
-      <c r="C292" s="41"/>
-      <c r="D292" s="41"/>
-      <c r="E292" s="41"/>
-      <c r="F292" s="41"/>
-      <c r="G292" s="41"/>
-      <c r="H292" s="41"/>
-      <c r="I292" s="41"/>
+      <c r="A292" s="75"/>
+      <c r="B292" s="76"/>
+      <c r="C292" s="76"/>
+      <c r="D292" s="76"/>
+      <c r="E292" s="76"/>
+      <c r="F292" s="76"/>
+      <c r="G292" s="76"/>
+      <c r="H292" s="76"/>
+      <c r="I292" s="76"/>
     </row>
     <row r="293" spans="1:11" ht="39" x14ac:dyDescent="0.6">
-      <c r="A293" s="42" t="s">
+      <c r="A293" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="B293" s="43"/>
-      <c r="C293" s="43"/>
-      <c r="D293" s="43"/>
-      <c r="E293" s="44"/>
-      <c r="F293" s="45"/>
-      <c r="G293" s="42" t="s">
+      <c r="B293" s="73"/>
+      <c r="C293" s="73"/>
+      <c r="D293" s="73"/>
+      <c r="E293" s="74"/>
+      <c r="F293" s="59"/>
+      <c r="G293" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="H293" s="43"/>
-      <c r="I293" s="43"/>
-      <c r="J293" s="43"/>
-      <c r="K293" s="44"/>
+      <c r="H293" s="73"/>
+      <c r="I293" s="73"/>
+      <c r="J293" s="73"/>
+      <c r="K293" s="74"/>
     </row>
     <row r="294" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="48" t="s">
+      <c r="A294" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="B294" s="48"/>
-      <c r="C294" s="48"/>
-      <c r="D294" s="48"/>
-      <c r="E294" s="48"/>
-      <c r="F294" s="46"/>
-      <c r="G294" s="48" t="s">
+      <c r="B294" s="65"/>
+      <c r="C294" s="65"/>
+      <c r="D294" s="65"/>
+      <c r="E294" s="65"/>
+      <c r="F294" s="60"/>
+      <c r="G294" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="H294" s="48"/>
-      <c r="I294" s="48"/>
-      <c r="J294" s="48"/>
-      <c r="K294" s="48"/>
+      <c r="H294" s="65"/>
+      <c r="I294" s="65"/>
+      <c r="J294" s="65"/>
+      <c r="K294" s="65"/>
     </row>
     <row r="295" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="9" t="s">
@@ -21562,7 +21562,7 @@
       <c r="E295" s="18">
         <v>32</v>
       </c>
-      <c r="F295" s="46"/>
+      <c r="F295" s="60"/>
       <c r="G295" s="9" t="s">
         <v>2</v>
       </c>
@@ -21574,17 +21574,17 @@
       <c r="K295" s="18"/>
     </row>
     <row r="296" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A296" s="49"/>
-      <c r="B296" s="49"/>
-      <c r="C296" s="49"/>
-      <c r="D296" s="49"/>
-      <c r="E296" s="50"/>
-      <c r="F296" s="46"/>
-      <c r="G296" s="49"/>
-      <c r="H296" s="49"/>
-      <c r="I296" s="49"/>
-      <c r="J296" s="49"/>
-      <c r="K296" s="50"/>
+      <c r="A296" s="44"/>
+      <c r="B296" s="44"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="44"/>
+      <c r="E296" s="66"/>
+      <c r="F296" s="60"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="44"/>
+      <c r="I296" s="44"/>
+      <c r="J296" s="44"/>
+      <c r="K296" s="66"/>
     </row>
     <row r="297" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="9" t="s">
@@ -21594,11 +21594,11 @@
         <v>5</v>
       </c>
       <c r="C297" s="13"/>
-      <c r="D297" s="51" t="s">
+      <c r="D297" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E297" s="52"/>
-      <c r="F297" s="46"/>
+      <c r="E297" s="67"/>
+      <c r="F297" s="60"/>
       <c r="G297" s="9" t="s">
         <v>51</v>
       </c>
@@ -21613,7 +21613,7 @@
       <c r="C298" s="13"/>
       <c r="D298" s="27"/>
       <c r="E298" s="16"/>
-      <c r="F298" s="46"/>
+      <c r="F298" s="60"/>
       <c r="G298" s="26"/>
       <c r="H298" s="4"/>
       <c r="I298" s="13"/>
@@ -21624,7 +21624,7 @@
       <c r="C299" s="13"/>
       <c r="D299" s="27"/>
       <c r="E299" s="16"/>
-      <c r="F299" s="46"/>
+      <c r="F299" s="60"/>
       <c r="G299" s="26"/>
       <c r="H299" s="4"/>
       <c r="I299" s="13"/>
@@ -21635,7 +21635,7 @@
       <c r="C300" s="13"/>
       <c r="D300" s="27"/>
       <c r="E300" s="16"/>
-      <c r="F300" s="46"/>
+      <c r="F300" s="60"/>
       <c r="G300" s="26"/>
       <c r="H300" s="4"/>
       <c r="I300" s="13"/>
@@ -21646,7 +21646,7 @@
       <c r="C301" s="13"/>
       <c r="D301" s="27"/>
       <c r="E301" s="16"/>
-      <c r="F301" s="46"/>
+      <c r="F301" s="60"/>
       <c r="G301" s="26"/>
       <c r="H301" s="4"/>
       <c r="I301" s="13"/>
@@ -21657,7 +21657,7 @@
       <c r="C302" s="13"/>
       <c r="D302" s="27"/>
       <c r="E302" s="16"/>
-      <c r="F302" s="46"/>
+      <c r="F302" s="60"/>
       <c r="G302" s="26"/>
       <c r="H302" s="4"/>
       <c r="I302" s="13"/>
@@ -21668,7 +21668,7 @@
       <c r="C303" s="13"/>
       <c r="D303" s="27"/>
       <c r="E303" s="16"/>
-      <c r="F303" s="46"/>
+      <c r="F303" s="60"/>
       <c r="G303" s="26"/>
       <c r="H303" s="4"/>
       <c r="I303" s="13"/>
@@ -21679,7 +21679,7 @@
       <c r="C304" s="13"/>
       <c r="D304" s="27"/>
       <c r="E304" s="16"/>
-      <c r="F304" s="46"/>
+      <c r="F304" s="60"/>
       <c r="G304" s="26"/>
       <c r="H304" s="4"/>
       <c r="I304" s="13"/>
@@ -21690,7 +21690,7 @@
       <c r="C305" s="13"/>
       <c r="D305" s="27"/>
       <c r="E305" s="16"/>
-      <c r="F305" s="46"/>
+      <c r="F305" s="60"/>
       <c r="G305" s="26"/>
       <c r="H305" s="4"/>
       <c r="I305" s="13"/>
@@ -21701,7 +21701,7 @@
       <c r="C306" s="13"/>
       <c r="D306" s="27"/>
       <c r="E306" s="16"/>
-      <c r="F306" s="46"/>
+      <c r="F306" s="60"/>
       <c r="G306" s="26"/>
       <c r="H306" s="4"/>
       <c r="I306" s="13"/>
@@ -21712,7 +21712,7 @@
       <c r="C307" s="13"/>
       <c r="D307" s="27"/>
       <c r="E307" s="16"/>
-      <c r="F307" s="46"/>
+      <c r="F307" s="60"/>
       <c r="G307" s="26"/>
       <c r="H307" s="4"/>
       <c r="I307" s="13"/>
@@ -21723,7 +21723,7 @@
       <c r="C308" s="13"/>
       <c r="D308" s="27"/>
       <c r="E308" s="16"/>
-      <c r="F308" s="46"/>
+      <c r="F308" s="60"/>
       <c r="G308" s="26"/>
       <c r="H308" s="4"/>
       <c r="I308" s="13"/>
@@ -21734,7 +21734,7 @@
       <c r="C309" s="13"/>
       <c r="D309" s="27"/>
       <c r="E309" s="16"/>
-      <c r="F309" s="46"/>
+      <c r="F309" s="60"/>
       <c r="G309" s="26"/>
       <c r="H309" s="4"/>
       <c r="I309" s="13"/>
@@ -21745,7 +21745,7 @@
       <c r="C310" s="13"/>
       <c r="D310" s="27"/>
       <c r="E310" s="16"/>
-      <c r="F310" s="46"/>
+      <c r="F310" s="60"/>
       <c r="G310" s="26"/>
       <c r="H310" s="4"/>
       <c r="I310" s="13"/>
@@ -21756,7 +21756,7 @@
       <c r="C311" s="13"/>
       <c r="D311" s="27"/>
       <c r="E311" s="16"/>
-      <c r="F311" s="46"/>
+      <c r="F311" s="60"/>
       <c r="G311" s="26"/>
       <c r="H311" s="4"/>
       <c r="I311" s="13"/>
@@ -21767,7 +21767,7 @@
       <c r="C312" s="13"/>
       <c r="D312" s="27"/>
       <c r="E312" s="16"/>
-      <c r="F312" s="46"/>
+      <c r="F312" s="60"/>
       <c r="G312" s="26"/>
       <c r="H312" s="4"/>
       <c r="I312" s="13"/>
@@ -21778,7 +21778,7 @@
       <c r="C313" s="13"/>
       <c r="D313" s="27"/>
       <c r="E313" s="16"/>
-      <c r="F313" s="46"/>
+      <c r="F313" s="60"/>
       <c r="G313" s="26"/>
       <c r="H313" s="4"/>
       <c r="I313" s="13"/>
@@ -21789,7 +21789,7 @@
       <c r="C314" s="13"/>
       <c r="D314" s="27"/>
       <c r="E314" s="16"/>
-      <c r="F314" s="46"/>
+      <c r="F314" s="60"/>
       <c r="G314" s="26"/>
       <c r="H314" s="4"/>
       <c r="I314" s="13"/>
@@ -21800,7 +21800,7 @@
       <c r="C315" s="13"/>
       <c r="D315" s="27"/>
       <c r="E315" s="16"/>
-      <c r="F315" s="46"/>
+      <c r="F315" s="60"/>
       <c r="G315" s="26"/>
       <c r="H315" s="4"/>
       <c r="I315" s="13"/>
@@ -21811,7 +21811,7 @@
       <c r="C316" s="13"/>
       <c r="D316" s="27"/>
       <c r="E316" s="16"/>
-      <c r="F316" s="46"/>
+      <c r="F316" s="60"/>
       <c r="G316" s="26"/>
       <c r="H316" s="4"/>
       <c r="I316" s="13"/>
@@ -21822,7 +21822,7 @@
       <c r="C317" s="13"/>
       <c r="D317" s="27"/>
       <c r="E317" s="16"/>
-      <c r="F317" s="46"/>
+      <c r="F317" s="60"/>
       <c r="G317" s="26"/>
       <c r="H317" s="4"/>
       <c r="I317" s="13"/>
@@ -21833,7 +21833,7 @@
       <c r="C318" s="13"/>
       <c r="D318" s="27"/>
       <c r="E318" s="16"/>
-      <c r="F318" s="46"/>
+      <c r="F318" s="60"/>
       <c r="G318" s="26"/>
       <c r="H318" s="4"/>
       <c r="I318" s="13"/>
@@ -21844,7 +21844,7 @@
       <c r="C319" s="13"/>
       <c r="D319" s="27"/>
       <c r="E319" s="16"/>
-      <c r="F319" s="46"/>
+      <c r="F319" s="60"/>
       <c r="G319" s="26"/>
       <c r="H319" s="4"/>
       <c r="I319" s="13"/>
@@ -21855,7 +21855,7 @@
       <c r="C320" s="13"/>
       <c r="D320" s="27"/>
       <c r="E320" s="16"/>
-      <c r="F320" s="46"/>
+      <c r="F320" s="60"/>
       <c r="G320" s="26"/>
       <c r="H320" s="4"/>
       <c r="I320" s="13"/>
@@ -21866,7 +21866,7 @@
       <c r="C321" s="13"/>
       <c r="D321" s="27"/>
       <c r="E321" s="16"/>
-      <c r="F321" s="46"/>
+      <c r="F321" s="60"/>
       <c r="G321" s="26"/>
       <c r="H321" s="4"/>
       <c r="I321" s="13"/>
@@ -21877,7 +21877,7 @@
       <c r="C322" s="13"/>
       <c r="D322" s="27"/>
       <c r="E322" s="16"/>
-      <c r="F322" s="46"/>
+      <c r="F322" s="60"/>
       <c r="G322" s="26"/>
       <c r="H322" s="4"/>
       <c r="I322" s="13"/>
@@ -21888,7 +21888,7 @@
       <c r="C323" s="13"/>
       <c r="D323" s="27"/>
       <c r="E323" s="16"/>
-      <c r="F323" s="46"/>
+      <c r="F323" s="60"/>
       <c r="G323" s="26"/>
       <c r="H323" s="4"/>
       <c r="I323" s="13"/>
@@ -21899,7 +21899,7 @@
       <c r="C324" s="13"/>
       <c r="D324" s="27"/>
       <c r="E324" s="16"/>
-      <c r="F324" s="47"/>
+      <c r="F324" s="61"/>
       <c r="G324" s="26"/>
       <c r="H324" s="4"/>
       <c r="I324" s="13"/>
@@ -21910,7 +21910,7 @@
       <c r="C325" s="13"/>
       <c r="D325" s="27"/>
       <c r="E325" s="16"/>
-      <c r="F325" s="38"/>
+      <c r="F325" s="71"/>
       <c r="G325" s="26"/>
       <c r="H325" s="4"/>
       <c r="I325" s="13"/>
@@ -21921,7 +21921,7 @@
       <c r="C326" s="13"/>
       <c r="D326" s="27"/>
       <c r="E326" s="16"/>
-      <c r="F326" s="39"/>
+      <c r="F326" s="49"/>
       <c r="G326" s="26"/>
       <c r="H326" s="4"/>
       <c r="I326" s="13"/>
@@ -21932,7 +21932,7 @@
       <c r="C327" s="13"/>
       <c r="D327" s="27"/>
       <c r="E327" s="16"/>
-      <c r="F327" s="39"/>
+      <c r="F327" s="49"/>
       <c r="G327" s="26"/>
       <c r="H327" s="4"/>
       <c r="I327" s="13"/>
@@ -21943,7 +21943,7 @@
       <c r="C328" s="13"/>
       <c r="D328" s="27"/>
       <c r="E328" s="16"/>
-      <c r="F328" s="39"/>
+      <c r="F328" s="49"/>
       <c r="G328" s="26"/>
       <c r="H328" s="4"/>
       <c r="I328" s="13"/>
@@ -21954,7 +21954,7 @@
       <c r="C329" s="13"/>
       <c r="D329" s="27"/>
       <c r="E329" s="16"/>
-      <c r="F329" s="39"/>
+      <c r="F329" s="49"/>
       <c r="G329" s="26"/>
       <c r="H329" s="4"/>
       <c r="I329" s="13"/>
@@ -21965,7 +21965,7 @@
       <c r="C330" s="13"/>
       <c r="D330" s="27"/>
       <c r="E330" s="16"/>
-      <c r="F330" s="39"/>
+      <c r="F330" s="49"/>
       <c r="G330" s="26"/>
       <c r="H330" s="4"/>
       <c r="I330" s="13"/>
@@ -21976,7 +21976,7 @@
       <c r="C331" s="13"/>
       <c r="D331" s="27"/>
       <c r="E331" s="16"/>
-      <c r="F331" s="39"/>
+      <c r="F331" s="49"/>
       <c r="G331" s="26"/>
       <c r="H331" s="4"/>
       <c r="I331" s="13"/>
@@ -21987,7 +21987,7 @@
       <c r="C332" s="13"/>
       <c r="D332" s="27"/>
       <c r="E332" s="16"/>
-      <c r="F332" s="39"/>
+      <c r="F332" s="49"/>
       <c r="G332" s="26"/>
       <c r="H332" s="4"/>
       <c r="I332" s="13"/>
@@ -21998,7 +21998,7 @@
       <c r="C333" s="13"/>
       <c r="D333" s="27"/>
       <c r="E333" s="16"/>
-      <c r="F333" s="39"/>
+      <c r="F333" s="49"/>
       <c r="G333" s="26"/>
       <c r="H333" s="4"/>
       <c r="I333" s="13"/>
@@ -22009,7 +22009,7 @@
       <c r="C334" s="13"/>
       <c r="D334" s="27"/>
       <c r="E334" s="16"/>
-      <c r="F334" s="39"/>
+      <c r="F334" s="49"/>
       <c r="G334" s="26"/>
       <c r="H334" s="4"/>
       <c r="I334" s="13"/>
@@ -22020,7 +22020,7 @@
       <c r="C335" s="13"/>
       <c r="D335" s="27"/>
       <c r="E335" s="16"/>
-      <c r="F335" s="39"/>
+      <c r="F335" s="49"/>
       <c r="G335" s="26"/>
       <c r="H335" s="4"/>
       <c r="I335" s="13"/>
@@ -22031,13 +22031,99 @@
       <c r="C336" s="13"/>
       <c r="D336" s="27"/>
       <c r="E336" s="16"/>
-      <c r="F336" s="39"/>
+      <c r="F336" s="49"/>
       <c r="G336" s="26"/>
       <c r="H336" s="4"/>
       <c r="I336" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="110">
+    <mergeCell ref="F325:F336"/>
+    <mergeCell ref="F280:F291"/>
+    <mergeCell ref="A292:I292"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="F293:F324"/>
+    <mergeCell ref="G293:K293"/>
+    <mergeCell ref="A294:E294"/>
+    <mergeCell ref="G294:K294"/>
+    <mergeCell ref="A296:E296"/>
+    <mergeCell ref="G296:K296"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="F235:F246"/>
+    <mergeCell ref="A202:I202"/>
+    <mergeCell ref="A247:I247"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="F248:F279"/>
+    <mergeCell ref="G248:K248"/>
+    <mergeCell ref="A249:E249"/>
+    <mergeCell ref="G249:K249"/>
+    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="G251:K251"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="A203:E203"/>
+    <mergeCell ref="F203:F234"/>
+    <mergeCell ref="G203:K203"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="G204:K204"/>
+    <mergeCell ref="A206:E206"/>
+    <mergeCell ref="G206:K206"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F146:F157"/>
+    <mergeCell ref="A159:E159"/>
+    <mergeCell ref="F159:F190"/>
+    <mergeCell ref="G159:K159"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="G160:K160"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="G162:K162"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="N54:T54"/>
+    <mergeCell ref="N55:T55"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="N62:T62"/>
+    <mergeCell ref="N67:T67"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="F114:F145"/>
+    <mergeCell ref="G114:K114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="G117:K117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A68:N68"/>
+    <mergeCell ref="A70:E70"/>
+    <mergeCell ref="F101:F112"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="F69:F100"/>
+    <mergeCell ref="A72:E72"/>
+    <mergeCell ref="N46:T46"/>
+    <mergeCell ref="N47:T47"/>
+    <mergeCell ref="N48:T48"/>
+    <mergeCell ref="N49:T49"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="F5:F26"/>
+    <mergeCell ref="F28:F66"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="N52:T52"/>
+    <mergeCell ref="N41:T41"/>
+    <mergeCell ref="N42:T42"/>
+    <mergeCell ref="N43:T43"/>
+    <mergeCell ref="G29:N29"/>
+    <mergeCell ref="L30:N31"/>
+    <mergeCell ref="N34:T34"/>
+    <mergeCell ref="N66:T66"/>
+    <mergeCell ref="N53:T53"/>
     <mergeCell ref="N50:T50"/>
     <mergeCell ref="N51:T51"/>
     <mergeCell ref="N59:T59"/>
@@ -22062,92 +22148,6 @@
     <mergeCell ref="N45:T45"/>
     <mergeCell ref="J32:M32"/>
     <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N46:T46"/>
-    <mergeCell ref="N47:T47"/>
-    <mergeCell ref="N48:T48"/>
-    <mergeCell ref="N49:T49"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="G26:L26"/>
-    <mergeCell ref="F5:F26"/>
-    <mergeCell ref="F28:F66"/>
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="N52:T52"/>
-    <mergeCell ref="N41:T41"/>
-    <mergeCell ref="N42:T42"/>
-    <mergeCell ref="N43:T43"/>
-    <mergeCell ref="G29:N29"/>
-    <mergeCell ref="L30:N31"/>
-    <mergeCell ref="N34:T34"/>
-    <mergeCell ref="N66:T66"/>
-    <mergeCell ref="N53:T53"/>
-    <mergeCell ref="N54:T54"/>
-    <mergeCell ref="N55:T55"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="N62:T62"/>
-    <mergeCell ref="N67:T67"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="F114:F145"/>
-    <mergeCell ref="G114:K114"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="G117:K117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="A68:N68"/>
-    <mergeCell ref="A70:E70"/>
-    <mergeCell ref="F101:F112"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="F69:F100"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="F146:F157"/>
-    <mergeCell ref="A159:E159"/>
-    <mergeCell ref="F159:F190"/>
-    <mergeCell ref="G159:K159"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="G160:K160"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="G162:K162"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="F235:F246"/>
-    <mergeCell ref="A202:I202"/>
-    <mergeCell ref="A247:I247"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="F248:F279"/>
-    <mergeCell ref="G248:K248"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="G249:K249"/>
-    <mergeCell ref="A251:E251"/>
-    <mergeCell ref="G251:K251"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="A203:E203"/>
-    <mergeCell ref="F203:F234"/>
-    <mergeCell ref="G203:K203"/>
-    <mergeCell ref="A204:E204"/>
-    <mergeCell ref="G204:K204"/>
-    <mergeCell ref="A206:E206"/>
-    <mergeCell ref="G206:K206"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F325:F336"/>
-    <mergeCell ref="F280:F291"/>
-    <mergeCell ref="A292:I292"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="F293:F324"/>
-    <mergeCell ref="G293:K293"/>
-    <mergeCell ref="A294:E294"/>
-    <mergeCell ref="G294:K294"/>
-    <mergeCell ref="A296:E296"/>
-    <mergeCell ref="G296:K296"/>
-    <mergeCell ref="D297:E297"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
